--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1389947.508611779</v>
+        <v>1428461.765543044</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6538758.560422715</v>
+        <v>5301029.811029744</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3353501.821537508</v>
+        <v>2166967.111789207</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7818978.58669175</v>
+        <v>8236407.610298987</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>315.0441670252108</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>299.6795692073654</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>79.27534814207846</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,13 +867,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
@@ -880,10 +882,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>180.6077930059085</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>218.6923835132829</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
         <v>404.6410012660961</v>
@@ -947,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>367.7036355089646</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1057,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>16.68943793051615</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,22 +1104,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>42.43741174507631</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>22.65506591082194</v>
+        <v>208.6741894990672</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1291,10 +1293,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>42.43741174507644</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1339,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>120.8701941643277</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
         <v>235.9604235189134</v>
@@ -1370,19 +1372,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>305.4047126863063</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
@@ -1421,13 +1423,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>174.4275996389293</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
@@ -1436,7 +1438,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1525,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>54.68688746169133</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1612,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
@@ -1619,13 +1621,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>216.6467621941105</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>8.078281349361617</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -1670,10 +1672,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -1780,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>65.4252075691918</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1828,7 +1830,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1901,13 +1903,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>300.4920170745502</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>22.92681701721022</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -1999,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>102.0946856454011</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>66.61803568334331</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2081,10 +2083,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>363.9585094926619</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>37.78331767565417</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
@@ -2138,7 +2140,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -2248,13 +2250,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>106.9706214097034</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>54.68688746169106</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2299,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
@@ -2327,16 +2329,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>378.9769832968749</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>84.73179601342657</v>
       </c>
       <c r="T23" t="n">
         <v>219.9844192126098</v>
@@ -2488,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>142.1425469631904</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
@@ -2533,16 +2535,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>82.94963377719351</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2569,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>47.64512042712315</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2710,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.129193841209543</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>184.5278504388888</v>
@@ -2767,19 +2769,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>210.6872102420495</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2795,10 +2797,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>368.1319780410717</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
@@ -2959,10 +2961,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>135.9468142611126</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>106.9706214097034</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -3035,10 +3037,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>384.5327953590509</v>
       </c>
       <c r="F32" t="n">
-        <v>194.3204012433884</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>404.6410012660961</v>
@@ -3080,7 +3082,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
         <v>254.489886823085</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
@@ -3202,10 +3204,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>54.68688746169133</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>249.5143133214575</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3280,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>355.4445328256832</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3329,7 +3331,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>358.7938392237627</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -3427,22 +3429,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>22.98150733755302</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>106.9706214097034</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -3521,7 +3523,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>251.406689650563</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>334.0755358138493</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -3658,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>29.06736062834963</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>206.2273198392503</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3745,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>195.2657749713856</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
@@ -3752,13 +3754,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>269.9562877695847</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -3895,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3943,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>230.4591671048107</v>
       </c>
       <c r="W43" t="n">
-        <v>220.2647746254028</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
@@ -3980,19 +3982,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>361.0003448878583</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>102.3970600984023</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>72.55946887449164</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4186,13 +4188,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>215.7942570968687</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
@@ -4201,7 +4203,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1201.869857010476</v>
+        <v>1378.723472461974</v>
       </c>
       <c r="C2" t="n">
-        <v>1195.78567036415</v>
+        <v>968.5988817752439</v>
       </c>
       <c r="D2" t="n">
-        <v>1195.362144497615</v>
+        <v>564.1349518683044</v>
       </c>
       <c r="E2" t="n">
-        <v>781.0219290145112</v>
+        <v>553.8351404256051</v>
       </c>
       <c r="F2" t="n">
-        <v>359.9915169681988</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
@@ -4331,19 +4333,19 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L2" t="n">
-        <v>41.76508562960205</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M2" t="n">
-        <v>537.7254774811266</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N2" t="n">
-        <v>1054.568412147452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O2" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P2" t="n">
         <v>2088.254281480102</v>
@@ -4358,22 +4360,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>1608.987305686471</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V2" t="n">
-        <v>1608.987305686471</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W2" t="n">
-        <v>1608.987305686471</v>
+        <v>1785.547645917107</v>
       </c>
       <c r="X2" t="n">
-        <v>1608.987305686471</v>
+        <v>1384.904248086059</v>
       </c>
       <c r="Y2" t="n">
-        <v>1208.050632634561</v>
+        <v>1384.904248086059</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161367</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650825</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844749</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768029</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593075</v>
       </c>
       <c r="G3" t="n">
         <v>133.260889973646</v>
@@ -4404,28 +4406,28 @@
         <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960225</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922355</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>690.3841994575342</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L3" t="n">
-        <v>690.3841994575342</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M3" t="n">
-        <v>690.3841994575342</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N3" t="n">
-        <v>1207.22713412386</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="O3" t="n">
-        <v>1708.850297433489</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="P3" t="n">
-        <v>1708.850297433489</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q3" t="n">
         <v>2058.694762117472</v>
@@ -4452,7 +4454,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517234</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>628.1240465285898</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C4" t="n">
-        <v>628.1240465285898</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D4" t="n">
-        <v>468.6294018514998</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4513,25 +4515,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1485.891263925851</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1485.891263925851</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U4" t="n">
-        <v>1485.891263925851</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V4" t="n">
-        <v>1212.005518865373</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W4" t="n">
-        <v>932.9358543742478</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X4" t="n">
-        <v>932.9358543742478</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="Y4" t="n">
-        <v>708.2001557630125</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1930.860325406028</v>
+        <v>881.5511617534477</v>
       </c>
       <c r="C5" t="n">
-        <v>1520.735734719298</v>
+        <v>875.4669751071218</v>
       </c>
       <c r="D5" t="n">
-        <v>1299.834337231133</v>
+        <v>875.0434492405864</v>
       </c>
       <c r="E5" t="n">
-        <v>1289.534525788434</v>
+        <v>864.7436377978871</v>
       </c>
       <c r="F5" t="n">
-        <v>868.5041137421218</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G5" t="n">
-        <v>459.775829634954</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H5" t="n">
-        <v>148.867332262672</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
-        <v>62.51556957974518</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>299.932754418488</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>838.0922555275275</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L5" t="n">
-        <v>838.0922555275275</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M5" t="n">
-        <v>838.0922555275275</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="N5" t="n">
-        <v>1591.273272166145</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O5" t="n">
-        <v>2234.90412858325</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P5" t="n">
-        <v>2764.060826502402</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q5" t="n">
-        <v>3085.221833297694</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
-        <v>3125.778478987259</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>3125.778478987259</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>3125.778478987259</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U5" t="n">
-        <v>3125.778478987259</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V5" t="n">
-        <v>3125.778478987259</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="W5" t="n">
-        <v>2742.018178122427</v>
+        <v>887.7319373775331</v>
       </c>
       <c r="X5" t="n">
-        <v>2742.018178122427</v>
+        <v>887.7319373775331</v>
       </c>
       <c r="Y5" t="n">
-        <v>2341.081505070517</v>
+        <v>887.7319373775331</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>741.3464114662795</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>607.3513402152253</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>490.4541824346177</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>369.9613664269457</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>261.0014866094502</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>154.0113739237889</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>83.26416095950501</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
-        <v>62.51556957974518</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>255.3284271423784</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>255.3284271423784</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>255.3284271423784</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M6" t="n">
-        <v>955.9706078342851</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N6" t="n">
-        <v>1729.600781383632</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="O6" t="n">
-        <v>1729.600781383632</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="P6" t="n">
-        <v>1729.600781383632</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q6" t="n">
-        <v>2079.445246067615</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
-        <v>2109.004765430245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S6" t="n">
-        <v>2001.014755544554</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T6" t="n">
-        <v>1841.672891731562</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U6" t="n">
-        <v>1644.322080869781</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1430.610553862815</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1217.377385599144</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
-        <v>1041.051403738036</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>881.6494441018662</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>714.0176285841002</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C7" t="n">
-        <v>714.0176285841002</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
-        <v>554.5229839070103</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>393.6121687753297</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>228.981042885921</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>212.1230247742885</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>62.51556957974518</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
-        <v>62.51556957974518</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J7" t="n">
-        <v>76.5981189849557</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K7" t="n">
-        <v>231.1504467071937</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L7" t="n">
-        <v>491.0475469872542</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M7" t="n">
-        <v>780.3116034277475</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N7" t="n">
-        <v>1061.150385821998</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O7" t="n">
-        <v>1320.710996148472</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P7" t="n">
-        <v>1526.386436398084</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q7" t="n">
-        <v>1591.914466200595</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1591.914466200595</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1405.522698080506</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1405.522698080506</v>
+        <v>1528.297909780678</v>
       </c>
       <c r="U7" t="n">
-        <v>1405.522698080506</v>
+        <v>1245.499762326802</v>
       </c>
       <c r="V7" t="n">
-        <v>1405.522698080506</v>
+        <v>971.614017266324</v>
       </c>
       <c r="W7" t="n">
-        <v>1126.45303358938</v>
+        <v>692.5443527751984</v>
       </c>
       <c r="X7" t="n">
-        <v>1126.45303358938</v>
+        <v>454.2004906348818</v>
       </c>
       <c r="Y7" t="n">
-        <v>901.7173349781445</v>
+        <v>229.4647920236465</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2207.554764492925</v>
+        <v>2144.705157697622</v>
       </c>
       <c r="C8" t="n">
-        <v>1797.430173806195</v>
+        <v>1734.580567010892</v>
       </c>
       <c r="D8" t="n">
-        <v>1392.966243899255</v>
+        <v>1330.116637103952</v>
       </c>
       <c r="E8" t="n">
-        <v>978.6260284161523</v>
+        <v>915.7764216208491</v>
       </c>
       <c r="F8" t="n">
-        <v>557.5956163698398</v>
+        <v>494.7460095745366</v>
       </c>
       <c r="G8" t="n">
-        <v>148.867332262672</v>
+        <v>86.01772546736875</v>
       </c>
       <c r="H8" t="n">
-        <v>148.867332262672</v>
+        <v>86.01772546736875</v>
       </c>
       <c r="I8" t="n">
-        <v>62.51556957974518</v>
+        <v>86.01772546736875</v>
       </c>
       <c r="J8" t="n">
-        <v>230.9722110233548</v>
+        <v>340.2031969351231</v>
       </c>
       <c r="K8" t="n">
-        <v>769.1317121323943</v>
+        <v>878.3626980441626</v>
       </c>
       <c r="L8" t="n">
-        <v>1481.723111944632</v>
+        <v>1590.9540978564</v>
       </c>
       <c r="M8" t="n">
-        <v>1481.723111944632</v>
+        <v>2367.272688848154</v>
       </c>
       <c r="N8" t="n">
-        <v>2234.90412858325</v>
+        <v>3120.453705486772</v>
       </c>
       <c r="O8" t="n">
-        <v>2234.90412858325</v>
+        <v>3764.084561903877</v>
       </c>
       <c r="P8" t="n">
-        <v>2764.060826502402</v>
+        <v>3979.725266573145</v>
       </c>
       <c r="Q8" t="n">
-        <v>3085.221833297694</v>
+        <v>4300.886273368437</v>
       </c>
       <c r="R8" t="n">
-        <v>3125.778478987259</v>
+        <v>4300.886273368437</v>
       </c>
       <c r="S8" t="n">
-        <v>2990.49740378136</v>
+        <v>4300.886273368437</v>
       </c>
       <c r="T8" t="n">
-        <v>2990.49740378136</v>
+        <v>4300.886273368437</v>
       </c>
       <c r="U8" t="n">
-        <v>2967.613498820934</v>
+        <v>4090.10426377342</v>
       </c>
       <c r="V8" t="n">
-        <v>2617.775944157414</v>
+        <v>3740.266709109901</v>
       </c>
       <c r="W8" t="n">
-        <v>2617.775944157414</v>
+        <v>3356.506408245069</v>
       </c>
       <c r="X8" t="n">
-        <v>2617.775944157414</v>
+        <v>2955.863010414022</v>
       </c>
       <c r="Y8" t="n">
-        <v>2617.775944157414</v>
+        <v>2554.926337362112</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>741.3464114662795</v>
+        <v>764.848567353903</v>
       </c>
       <c r="C9" t="n">
-        <v>607.3513402152253</v>
+        <v>630.8534961028488</v>
       </c>
       <c r="D9" t="n">
-        <v>490.4541824346177</v>
+        <v>513.9563383222412</v>
       </c>
       <c r="E9" t="n">
-        <v>369.9613664269457</v>
+        <v>393.4635223145692</v>
       </c>
       <c r="F9" t="n">
-        <v>261.0014866094502</v>
+        <v>284.5036424970738</v>
       </c>
       <c r="G9" t="n">
-        <v>154.0113739237889</v>
+        <v>177.5135298114125</v>
       </c>
       <c r="H9" t="n">
-        <v>83.26416095950501</v>
+        <v>106.7663168471286</v>
       </c>
       <c r="I9" t="n">
-        <v>62.51556957974518</v>
+        <v>86.01772546736875</v>
       </c>
       <c r="J9" t="n">
-        <v>62.51556957974518</v>
+        <v>278.830583030002</v>
       </c>
       <c r="K9" t="n">
-        <v>518.3218258450439</v>
+        <v>278.830583030002</v>
       </c>
       <c r="L9" t="n">
-        <v>518.3218258450439</v>
+        <v>525.3322192977264</v>
       </c>
       <c r="M9" t="n">
-        <v>631.4175013350043</v>
+        <v>525.3322192977264</v>
       </c>
       <c r="N9" t="n">
-        <v>1405.047674884351</v>
+        <v>1398.990311409344</v>
       </c>
       <c r="O9" t="n">
-        <v>2109.004765430245</v>
+        <v>2102.947401955239</v>
       </c>
       <c r="P9" t="n">
-        <v>2109.004765430245</v>
+        <v>2102.947401955239</v>
       </c>
       <c r="Q9" t="n">
-        <v>2109.004765430245</v>
+        <v>2102.947401955239</v>
       </c>
       <c r="R9" t="n">
-        <v>2109.004765430245</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>2001.014755544554</v>
+        <v>2024.516911432177</v>
       </c>
       <c r="T9" t="n">
-        <v>1841.672891731562</v>
+        <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>1644.322080869781</v>
+        <v>1667.824236757404</v>
       </c>
       <c r="V9" t="n">
-        <v>1430.610553862815</v>
+        <v>1454.112709750438</v>
       </c>
       <c r="W9" t="n">
-        <v>1217.377385599144</v>
+        <v>1240.879541486767</v>
       </c>
       <c r="X9" t="n">
-        <v>1041.051403738036</v>
+        <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>881.6494441018662</v>
+        <v>905.1515999894897</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>393.1035866951187</v>
+        <v>128.8837979371429</v>
       </c>
       <c r="C10" t="n">
-        <v>222.0102142568352</v>
+        <v>86.01772546736875</v>
       </c>
       <c r="D10" t="n">
-        <v>62.51556957974518</v>
+        <v>86.01772546736875</v>
       </c>
       <c r="E10" t="n">
-        <v>62.51556957974518</v>
+        <v>86.01772546736875</v>
       </c>
       <c r="F10" t="n">
-        <v>62.51556957974518</v>
+        <v>86.01772546736875</v>
       </c>
       <c r="G10" t="n">
-        <v>62.51556957974518</v>
+        <v>86.01772546736875</v>
       </c>
       <c r="H10" t="n">
-        <v>62.51556957974518</v>
+        <v>86.01772546736875</v>
       </c>
       <c r="I10" t="n">
-        <v>62.51556957974518</v>
+        <v>86.01772546736875</v>
       </c>
       <c r="J10" t="n">
-        <v>76.5981189849557</v>
+        <v>100.1002748725793</v>
       </c>
       <c r="K10" t="n">
-        <v>231.1504467071937</v>
+        <v>254.6526025948172</v>
       </c>
       <c r="L10" t="n">
-        <v>491.0475469872542</v>
+        <v>514.5497028748778</v>
       </c>
       <c r="M10" t="n">
-        <v>780.3116034277475</v>
+        <v>803.813759315371</v>
       </c>
       <c r="N10" t="n">
-        <v>1061.150385821998</v>
+        <v>1084.652541709621</v>
       </c>
       <c r="O10" t="n">
-        <v>1320.710996148472</v>
+        <v>1344.213152036095</v>
       </c>
       <c r="P10" t="n">
-        <v>1526.386436398084</v>
+        <v>1549.888592285708</v>
       </c>
       <c r="Q10" t="n">
-        <v>1591.914466200595</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1591.914466200595</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="S10" t="n">
-        <v>1405.522698080506</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="T10" t="n">
-        <v>1165.973959057208</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="U10" t="n">
-        <v>1165.973959057208</v>
+        <v>1332.618474634343</v>
       </c>
       <c r="V10" t="n">
-        <v>1043.882853840715</v>
+        <v>1058.732729573865</v>
       </c>
       <c r="W10" t="n">
-        <v>1043.882853840715</v>
+        <v>779.6630650827392</v>
       </c>
       <c r="X10" t="n">
-        <v>805.5389917003984</v>
+        <v>541.3192029424226</v>
       </c>
       <c r="Y10" t="n">
-        <v>580.803293089163</v>
+        <v>316.5835043311873</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1172.72936831594</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C11" t="n">
-        <v>864.2397595418935</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D11" t="n">
-        <v>459.775829634954</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E11" t="n">
-        <v>459.775829634954</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F11" t="n">
-        <v>459.775829634954</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G11" t="n">
-        <v>459.775829634954</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H11" t="n">
-        <v>148.867332262672</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I11" t="n">
-        <v>62.51556957974518</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>316.7010410474995</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K11" t="n">
-        <v>854.8605421565389</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L11" t="n">
-        <v>955.3364323821893</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M11" t="n">
-        <v>1728.966605931536</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N11" t="n">
-        <v>2482.147622570154</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>3125.778478987259</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P11" t="n">
-        <v>3125.778478987259</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q11" t="n">
-        <v>3125.778478987259</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R11" t="n">
-        <v>3125.778478987259</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>2990.49740378136</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T11" t="n">
-        <v>2768.290919728219</v>
+        <v>4350.714314740463</v>
       </c>
       <c r="U11" t="n">
-        <v>2768.290919728219</v>
+        <v>4093.653822999973</v>
       </c>
       <c r="V11" t="n">
-        <v>2768.290919728219</v>
+        <v>3743.816268336454</v>
       </c>
       <c r="W11" t="n">
-        <v>2384.530618863387</v>
+        <v>3360.055967471622</v>
       </c>
       <c r="X11" t="n">
-        <v>1983.88722103234</v>
+        <v>2959.412569640574</v>
       </c>
       <c r="Y11" t="n">
-        <v>1582.95054798043</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>741.3464114662795</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C12" t="n">
-        <v>607.3513402152253</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D12" t="n">
-        <v>490.4541824346177</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E12" t="n">
-        <v>369.9613664269457</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F12" t="n">
-        <v>261.0014866094502</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G12" t="n">
-        <v>154.0113739237889</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H12" t="n">
-        <v>83.26416095950501</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I12" t="n">
-        <v>62.51556957974518</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>62.51556957974518</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>518.3218258450439</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>1179.409997764332</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M12" t="n">
-        <v>1517.739353579085</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N12" t="n">
-        <v>1517.739353579085</v>
+        <v>844.5103911440685</v>
       </c>
       <c r="O12" t="n">
-        <v>1517.739353579085</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="P12" t="n">
-        <v>2079.445246067615</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q12" t="n">
-        <v>2079.445246067615</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R12" t="n">
-        <v>2109.004765430245</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S12" t="n">
-        <v>2001.014755544554</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T12" t="n">
-        <v>1841.672891731562</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U12" t="n">
-        <v>1644.322080869781</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V12" t="n">
-        <v>1430.610553862815</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W12" t="n">
-        <v>1217.377385599144</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X12" t="n">
-        <v>1041.051403738036</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y12" t="n">
-        <v>881.6494441018662</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>941.1351990549992</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C13" t="n">
-        <v>770.0418266167158</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D13" t="n">
-        <v>610.5471819396257</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E13" t="n">
-        <v>449.6363668079452</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F13" t="n">
-        <v>285.0052409185365</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G13" t="n">
-        <v>117.7548498440799</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
-        <v>62.51556957974518</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
-        <v>62.51556957974518</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>76.5981189849557</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K13" t="n">
-        <v>231.1504467071937</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L13" t="n">
-        <v>491.0475469872542</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M13" t="n">
-        <v>780.3116034277475</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N13" t="n">
-        <v>1061.150385821998</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O13" t="n">
-        <v>1320.710996148472</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P13" t="n">
-        <v>1526.386436398084</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q13" t="n">
-        <v>1591.914466200595</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1591.914466200595</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S13" t="n">
-        <v>1591.914466200595</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T13" t="n">
-        <v>1591.914466200595</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U13" t="n">
-        <v>1591.914466200595</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V13" t="n">
-        <v>1591.914466200595</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W13" t="n">
-        <v>1591.914466200595</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="X13" t="n">
-        <v>1353.570604060279</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="Y13" t="n">
-        <v>1128.834905449044</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1716.739071903059</v>
+        <v>2359.298219196301</v>
       </c>
       <c r="C14" t="n">
-        <v>1306.614481216329</v>
+        <v>1949.173628509571</v>
       </c>
       <c r="D14" t="n">
-        <v>1306.614481216329</v>
+        <v>1544.709698602632</v>
       </c>
       <c r="E14" t="n">
-        <v>892.2742657332255</v>
+        <v>1130.369483119528</v>
       </c>
       <c r="F14" t="n">
-        <v>471.243853686913</v>
+        <v>709.339071073216</v>
       </c>
       <c r="G14" t="n">
-        <v>62.51556957974518</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H14" t="n">
-        <v>62.51556957974518</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I14" t="n">
-        <v>62.51556957974518</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>62.51556957974518</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>62.51556957974518</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
-        <v>775.1069693919832</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M14" t="n">
-        <v>1548.73714294133</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N14" t="n">
-        <v>2301.918159579948</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>2945.549015997053</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P14" t="n">
-        <v>3125.778478987259</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q14" t="n">
-        <v>3125.778478987259</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R14" t="n">
-        <v>3125.778478987259</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>3125.778478987259</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>3117.618598836389</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U14" t="n">
-        <v>2860.558107095899</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V14" t="n">
-        <v>2510.720552432379</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W14" t="n">
-        <v>2126.960251567548</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X14" t="n">
-        <v>2126.960251567548</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y14" t="n">
-        <v>2126.960251567548</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>741.3464114662795</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C15" t="n">
-        <v>607.3513402152253</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D15" t="n">
-        <v>490.4541824346177</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E15" t="n">
-        <v>369.9613664269457</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F15" t="n">
-        <v>261.0014866094502</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G15" t="n">
-        <v>154.0113739237889</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H15" t="n">
-        <v>83.26416095950501</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I15" t="n">
-        <v>62.51556957974518</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>62.51556957974518</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>518.3218258450439</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L15" t="n">
-        <v>1179.409997764332</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="M15" t="n">
-        <v>1179.409997764332</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="N15" t="n">
-        <v>1547.298872941715</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="O15" t="n">
-        <v>1547.298872941715</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P15" t="n">
-        <v>2109.004765430245</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q15" t="n">
-        <v>2109.004765430245</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
-        <v>2109.004765430245</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S15" t="n">
-        <v>2001.014755544554</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T15" t="n">
-        <v>1841.672891731562</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U15" t="n">
-        <v>1644.322080869781</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V15" t="n">
-        <v>1430.610553862815</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W15" t="n">
-        <v>1217.377385599144</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X15" t="n">
-        <v>1041.051403738036</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y15" t="n">
-        <v>881.6494441018662</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>244.9476837271279</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C16" t="n">
-        <v>244.9476837271279</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D16" t="n">
-        <v>244.9476837271279</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E16" t="n">
-        <v>244.9476837271279</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F16" t="n">
-        <v>244.9476837271279</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G16" t="n">
-        <v>244.9476837271279</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H16" t="n">
-        <v>178.861615475419</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
-        <v>62.51556957974518</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>76.5981189849557</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K16" t="n">
-        <v>231.1504467071937</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L16" t="n">
-        <v>491.0475469872542</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M16" t="n">
-        <v>780.3116034277475</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N16" t="n">
-        <v>1061.150385821998</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O16" t="n">
-        <v>1320.710996148472</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P16" t="n">
-        <v>1526.386436398084</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q16" t="n">
-        <v>1591.914466200595</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1506.641747875995</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S16" t="n">
-        <v>1320.249979755905</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T16" t="n">
-        <v>1080.701240732607</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U16" t="n">
-        <v>797.9030932787316</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V16" t="n">
-        <v>524.0173482182536</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W16" t="n">
-        <v>244.9476837271279</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="X16" t="n">
-        <v>244.9476837271279</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="Y16" t="n">
-        <v>244.9476837271279</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C17" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D17" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E17" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F17" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G17" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H17" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5549,16 +5551,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V17" t="n">
-        <v>3744.109543557316</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W17" t="n">
-        <v>3360.349242692484</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X17" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y17" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="18">
@@ -5595,19 +5597,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>212.9817385874103</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="M18" t="n">
-        <v>562.1177108836107</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="N18" t="n">
-        <v>1435.775802995229</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P18" t="n">
         <v>2139.732893541123</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>209.5897435862967</v>
+        <v>691.5887857917697</v>
       </c>
       <c r="C19" t="n">
-        <v>209.5897435862967</v>
+        <v>520.4954133534862</v>
       </c>
       <c r="D19" t="n">
-        <v>209.5897435862967</v>
+        <v>361.0007686763963</v>
       </c>
       <c r="E19" t="n">
-        <v>209.5897435862967</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F19" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5695,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1283.687162732093</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>1000.889015278217</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V19" t="n">
-        <v>727.0032702177389</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="W19" t="n">
-        <v>447.9336057266133</v>
+        <v>1104.024190797049</v>
       </c>
       <c r="X19" t="n">
-        <v>209.5897435862967</v>
+        <v>1104.024190797049</v>
       </c>
       <c r="Y19" t="n">
-        <v>209.5897435862967</v>
+        <v>879.2884921858141</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C20" t="n">
-        <v>2139.066799289355</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="D20" t="n">
         <v>1734.602869382415</v>
@@ -5777,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4624.019917181994</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4401.813433128853</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4144.752941388363</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V20" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W20" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X20" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y20" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="21">
@@ -5832,19 +5834,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L21" t="n">
-        <v>592.7987223006619</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M21" t="n">
-        <v>1435.775802995229</v>
+        <v>2053.115206569777</v>
       </c>
       <c r="N21" t="n">
-        <v>1435.775802995229</v>
+        <v>2053.115206569777</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>2053.115206569777</v>
       </c>
       <c r="P21" t="n">
         <v>2139.732893541123</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4011.405617385543</v>
+        <v>3732.335952894417</v>
       </c>
       <c r="C22" t="n">
-        <v>3840.31224494726</v>
+        <v>3561.242580456134</v>
       </c>
       <c r="D22" t="n">
-        <v>3680.81760027017</v>
+        <v>3401.747935779044</v>
       </c>
       <c r="E22" t="n">
-        <v>3519.906785138489</v>
+        <v>3240.837120647363</v>
       </c>
       <c r="F22" t="n">
-        <v>3355.27565924908</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G22" t="n">
-        <v>3188.025268174624</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H22" t="n">
         <v>3132.785987910289</v>
@@ -5947,13 +5949,13 @@
         <v>4662.18488453114</v>
       </c>
       <c r="W22" t="n">
-        <v>4662.18488453114</v>
+        <v>4383.115220040014</v>
       </c>
       <c r="X22" t="n">
-        <v>4423.841022390823</v>
+        <v>4144.771357899697</v>
       </c>
       <c r="Y22" t="n">
-        <v>4199.105323779588</v>
+        <v>3920.035659288462</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.113136769081</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.649206862142</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E23" t="n">
-        <v>873.3089913790386</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F23" t="n">
-        <v>490.5039577458317</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G23" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H23" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6014,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4576.597211790305</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4354.390727737164</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4097.330235996674</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>3747.492681333154</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3363.732380468323</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="24">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>547.3402982826956</v>
+        <v>3559.650304132187</v>
       </c>
       <c r="C25" t="n">
-        <v>547.3402982826956</v>
+        <v>3559.650304132187</v>
       </c>
       <c r="D25" t="n">
-        <v>547.3402982826956</v>
+        <v>3559.650304132187</v>
       </c>
       <c r="E25" t="n">
-        <v>386.4294831510151</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="F25" t="n">
-        <v>386.4294831510151</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="G25" t="n">
-        <v>242.8511528851661</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H25" t="n">
-        <v>93.2436976906228</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I25" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J25" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K25" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L25" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M25" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N25" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O25" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P25" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q25" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R25" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S25" t="n">
-        <v>1622.642594311473</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T25" t="n">
-        <v>1383.093855288175</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U25" t="n">
-        <v>1100.295707834299</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="V25" t="n">
-        <v>826.4099627738212</v>
+        <v>3784.386002743423</v>
       </c>
       <c r="W25" t="n">
-        <v>547.3402982826956</v>
+        <v>3784.386002743423</v>
       </c>
       <c r="X25" t="n">
-        <v>547.3402982826956</v>
+        <v>3784.386002743423</v>
       </c>
       <c r="Y25" t="n">
-        <v>547.3402982826956</v>
+        <v>3559.650304132187</v>
       </c>
     </row>
     <row r="26">
@@ -6215,16 +6217,16 @@
         <v>452.2785793327262</v>
       </c>
       <c r="G26" t="n">
-        <v>452.2785793327262</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H26" t="n">
-        <v>141.3700819604442</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K26" t="n">
         <v>885.5886702674165</v>
@@ -6236,7 +6238,7 @@
         <v>2374.498661071409</v>
       </c>
       <c r="N26" t="n">
-        <v>3127.679677710027</v>
+        <v>3127.679677710026</v>
       </c>
       <c r="O26" t="n">
         <v>3771.310534127132</v>
@@ -6309,13 +6311,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N27" t="n">
-        <v>1809.878870496807</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="O27" t="n">
         <v>2139.732893541123</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.2436976906228</v>
+        <v>3740.630866053017</v>
       </c>
       <c r="C28" t="n">
-        <v>93.2436976906228</v>
+        <v>3569.537493614734</v>
       </c>
       <c r="D28" t="n">
-        <v>93.2436976906228</v>
+        <v>3410.042848937644</v>
       </c>
       <c r="E28" t="n">
-        <v>93.2436976906228</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="F28" t="n">
-        <v>93.2436976906228</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="G28" t="n">
-        <v>93.2436976906228</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="H28" t="n">
-        <v>93.2436976906228</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I28" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J28" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K28" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L28" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M28" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N28" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O28" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P28" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q28" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R28" t="n">
-        <v>1537.369875986873</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S28" t="n">
-        <v>1350.978107866783</v>
+        <v>4475.79311641105</v>
       </c>
       <c r="T28" t="n">
-        <v>1111.429368843485</v>
+        <v>4236.244377387751</v>
       </c>
       <c r="U28" t="n">
-        <v>1111.429368843485</v>
+        <v>3953.446229933875</v>
       </c>
       <c r="V28" t="n">
-        <v>837.543623783007</v>
+        <v>3953.446229933875</v>
       </c>
       <c r="W28" t="n">
-        <v>558.4739592918813</v>
+        <v>3740.630866053017</v>
       </c>
       <c r="X28" t="n">
-        <v>320.1300971515647</v>
+        <v>3740.630866053017</v>
       </c>
       <c r="Y28" t="n">
-        <v>95.39439854032941</v>
+        <v>3740.630866053017</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C29" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D29" t="n">
-        <v>1734.602869382415</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="E29" t="n">
         <v>1320.262653899312</v>
@@ -6461,10 +6463,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K29" t="n">
-        <v>885.5886702674165</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L29" t="n">
         <v>1598.180070079655</v>
@@ -6473,13 +6475,13 @@
         <v>2374.498661071409</v>
       </c>
       <c r="N29" t="n">
-        <v>3127.679677710027</v>
+        <v>3127.679677710026</v>
       </c>
       <c r="O29" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P29" t="n">
-        <v>4300.467232046283</v>
+        <v>4300.467232046282</v>
       </c>
       <c r="Q29" t="n">
         <v>4621.628238841575</v>
@@ -6488,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U29" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V29" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W29" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X29" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y29" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="30">
@@ -6546,13 +6548,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851894</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N30" t="n">
-        <v>1809.878870496807</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="O30" t="n">
         <v>2139.732893541123</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>584.7425299376769</v>
+        <v>886.6936702322497</v>
       </c>
       <c r="C31" t="n">
-        <v>413.6491574993933</v>
+        <v>715.6002977939662</v>
       </c>
       <c r="D31" t="n">
-        <v>254.1545128223033</v>
+        <v>556.1056531168763</v>
       </c>
       <c r="E31" t="n">
-        <v>93.2436976906228</v>
+        <v>395.1948379851958</v>
       </c>
       <c r="F31" t="n">
-        <v>93.2436976906228</v>
+        <v>230.563712095787</v>
       </c>
       <c r="G31" t="n">
         <v>93.2436976906228</v>
@@ -6643,28 +6645,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S31" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T31" t="n">
-        <v>1622.642594311473</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U31" t="n">
-        <v>1622.642594311473</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="V31" t="n">
-        <v>1514.591461574399</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="W31" t="n">
-        <v>1235.521797083273</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="X31" t="n">
-        <v>997.1779349429565</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.4422363317212</v>
+        <v>886.6936702322497</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2324.444211508952</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C32" t="n">
-        <v>1914.319620822223</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D32" t="n">
-        <v>1509.855690915283</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E32" t="n">
-        <v>1095.51547543218</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="F32" t="n">
         <v>899.2322418529996</v>
@@ -6698,7 +6700,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K32" t="n">
         <v>885.5886702674165</v>
@@ -6713,7 +6715,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O32" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P32" t="n">
         <v>4300.467232046283</v>
@@ -6728,22 +6730,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U32" t="n">
-        <v>4269.84331758475</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V32" t="n">
-        <v>3920.005762921231</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W32" t="n">
-        <v>3536.245462056399</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X32" t="n">
-        <v>3135.602064225352</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y32" t="n">
-        <v>2734.665391173442</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="33">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3891.531821096053</v>
+        <v>971.8633271658769</v>
       </c>
       <c r="C34" t="n">
-        <v>3891.531821096053</v>
+        <v>800.7699547275934</v>
       </c>
       <c r="D34" t="n">
-        <v>3891.531821096053</v>
+        <v>641.2753100505033</v>
       </c>
       <c r="E34" t="n">
-        <v>3730.621005964372</v>
+        <v>480.3644949188228</v>
       </c>
       <c r="F34" t="n">
-        <v>3565.989880074963</v>
+        <v>315.7333690294141</v>
       </c>
       <c r="G34" t="n">
-        <v>3398.739489000507</v>
+        <v>148.4829779549575</v>
       </c>
       <c r="H34" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K34" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L34" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M34" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N34" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O34" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P34" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>4422.636145507842</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U34" t="n">
-        <v>4422.636145507842</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V34" t="n">
-        <v>4170.601485587178</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W34" t="n">
-        <v>3891.531821096053</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X34" t="n">
-        <v>3891.531821096053</v>
+        <v>1384.298732171156</v>
       </c>
       <c r="Y34" t="n">
-        <v>3891.531821096053</v>
+        <v>1159.563033559921</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2140.463105868917</v>
+        <v>2102.237727455812</v>
       </c>
       <c r="C35" t="n">
-        <v>1730.338515182187</v>
+        <v>1692.113136769082</v>
       </c>
       <c r="D35" t="n">
-        <v>1325.874585275247</v>
+        <v>1287.649206862143</v>
       </c>
       <c r="E35" t="n">
-        <v>911.5343697921442</v>
+        <v>873.3089913790395</v>
       </c>
       <c r="F35" t="n">
-        <v>490.5039577458317</v>
+        <v>452.2785793327271</v>
       </c>
       <c r="G35" t="n">
-        <v>490.5039577458317</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="H35" t="n">
-        <v>179.5954603735497</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="I35" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J35" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674167</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6959,28 +6961,28 @@
         <v>4621.628238841575</v>
       </c>
       <c r="R35" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="S35" t="n">
-        <v>4526.90380932524</v>
+        <v>4526.903809325241</v>
       </c>
       <c r="T35" t="n">
-        <v>4304.697325272099</v>
+        <v>4304.6973252721</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.636833531609</v>
+        <v>4047.63683353161</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>3697.799278868091</v>
       </c>
       <c r="W35" t="n">
-        <v>3314.038978003258</v>
+        <v>3314.038978003259</v>
       </c>
       <c r="X35" t="n">
-        <v>2951.620958585316</v>
+        <v>2913.395580172212</v>
       </c>
       <c r="Y35" t="n">
-        <v>2550.684285533406</v>
+        <v>2512.458907120302</v>
       </c>
     </row>
     <row r="36">
@@ -7002,7 +7004,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F36" t="n">
-        <v>291.7296147203278</v>
+        <v>291.7296147203279</v>
       </c>
       <c r="G36" t="n">
         <v>184.7395020346666</v>
@@ -7011,31 +7013,31 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I36" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J36" t="n">
-        <v>286.056555253256</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="K36" t="n">
-        <v>741.8628115185547</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="L36" t="n">
-        <v>741.8628115185547</v>
+        <v>754.3318696099111</v>
       </c>
       <c r="M36" t="n">
-        <v>1584.839892213121</v>
+        <v>754.3318696099111</v>
       </c>
       <c r="N36" t="n">
-        <v>2110.173374178493</v>
+        <v>1627.989961721529</v>
       </c>
       <c r="O36" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P36" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q36" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>584.7425299376769</v>
+        <v>3901.714378402657</v>
       </c>
       <c r="C37" t="n">
-        <v>413.6491574993933</v>
+        <v>3730.621005964373</v>
       </c>
       <c r="D37" t="n">
-        <v>254.1545128223033</v>
+        <v>3730.621005964373</v>
       </c>
       <c r="E37" t="n">
-        <v>93.2436976906228</v>
+        <v>3730.621005964373</v>
       </c>
       <c r="F37" t="n">
-        <v>93.2436976906228</v>
+        <v>3565.989880074964</v>
       </c>
       <c r="G37" t="n">
-        <v>93.2436976906228</v>
+        <v>3398.739489000508</v>
       </c>
       <c r="H37" t="n">
-        <v>93.2436976906228</v>
+        <v>3249.132033805964</v>
       </c>
       <c r="I37" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.78598791029</v>
       </c>
       <c r="J37" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.868537315501</v>
       </c>
       <c r="K37" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037739</v>
       </c>
       <c r="L37" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317799</v>
       </c>
       <c r="M37" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758292</v>
       </c>
       <c r="N37" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152543</v>
       </c>
       <c r="O37" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479017</v>
       </c>
       <c r="P37" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.65685472863</v>
       </c>
       <c r="Q37" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="R37" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.91216620654</v>
       </c>
       <c r="S37" t="n">
-        <v>1622.642594311473</v>
+        <v>4553.698522431234</v>
       </c>
       <c r="T37" t="n">
-        <v>1622.642594311473</v>
+        <v>4314.149783407936</v>
       </c>
       <c r="U37" t="n">
-        <v>1622.642594311473</v>
+        <v>4314.149783407936</v>
       </c>
       <c r="V37" t="n">
-        <v>1514.591461574399</v>
+        <v>4314.149783407936</v>
       </c>
       <c r="W37" t="n">
-        <v>1235.521797083273</v>
+        <v>4314.149783407936</v>
       </c>
       <c r="X37" t="n">
-        <v>997.1779349429565</v>
+        <v>4314.149783407936</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.4422363317212</v>
+        <v>4089.414084796701</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C38" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D38" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E38" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F38" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G38" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H38" t="n">
-        <v>179.5954603735497</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="I38" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674168</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7193,31 +7195,31 @@
         <v>4300.467232046283</v>
       </c>
       <c r="Q38" t="n">
-        <v>4621.628238841575</v>
+        <v>4621.628238841576</v>
       </c>
       <c r="R38" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="S38" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="T38" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="U38" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V38" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W38" t="n">
-        <v>3697.79927886809</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X38" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y38" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="39">
@@ -7239,7 +7241,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F39" t="n">
-        <v>291.7296147203278</v>
+        <v>291.7296147203279</v>
       </c>
       <c r="G39" t="n">
         <v>184.7395020346666</v>
@@ -7248,22 +7250,22 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I39" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="K39" t="n">
-        <v>549.0499539559215</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="L39" t="n">
-        <v>549.0499539559215</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="M39" t="n">
-        <v>562.1177108836107</v>
+        <v>936.2207783851895</v>
       </c>
       <c r="N39" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O39" t="n">
         <v>2139.732893541123</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>93.2436976906228</v>
+        <v>916.6240469015422</v>
       </c>
       <c r="C40" t="n">
-        <v>93.2436976906228</v>
+        <v>745.5306744632587</v>
       </c>
       <c r="D40" t="n">
-        <v>93.2436976906228</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="E40" t="n">
-        <v>93.2436976906228</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F40" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G40" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="H40" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="I40" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J40" t="n">
         <v>107.3262470958333</v>
@@ -7354,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1593.281623979807</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S40" t="n">
-        <v>1406.889855859717</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T40" t="n">
-        <v>1167.341116836419</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U40" t="n">
-        <v>884.5429693825431</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="V40" t="n">
-        <v>610.6572243220651</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="W40" t="n">
-        <v>331.5875598309394</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="X40" t="n">
-        <v>93.2436976906228</v>
+        <v>1329.059451906822</v>
       </c>
       <c r="Y40" t="n">
-        <v>93.2436976906228</v>
+        <v>1104.323753295587</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1913.977228439812</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C41" t="n">
-        <v>1503.852637753082</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D41" t="n">
-        <v>1306.614481216329</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E41" t="n">
-        <v>892.2742657332255</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F41" t="n">
-        <v>471.243853686913</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G41" t="n">
-        <v>62.51556957974518</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H41" t="n">
-        <v>62.51556957974518</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I41" t="n">
-        <v>62.51556957974518</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>62.51556957974518</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>600.6750706887847</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
-        <v>1199.809908012384</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M41" t="n">
-        <v>1199.809908012384</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N41" t="n">
-        <v>1952.990924651002</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O41" t="n">
-        <v>2596.621781068107</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P41" t="n">
-        <v>3125.778478987259</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q41" t="n">
-        <v>3125.778478987259</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R41" t="n">
-        <v>3125.778478987259</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>3125.778478987259</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>3125.778478987259</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>3125.778478987259</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V41" t="n">
-        <v>3125.778478987259</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W41" t="n">
-        <v>3125.778478987259</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X41" t="n">
-        <v>2725.135081156212</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y41" t="n">
-        <v>2324.198408104302</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>741.3464114662795</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C42" t="n">
-        <v>607.3513402152253</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D42" t="n">
-        <v>490.4541824346177</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E42" t="n">
-        <v>369.9613664269457</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F42" t="n">
-        <v>261.0014866094502</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G42" t="n">
-        <v>154.0113739237889</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H42" t="n">
-        <v>83.26416095950501</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I42" t="n">
-        <v>62.51556957974518</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>62.51556957974518</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>62.51556957974518</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L42" t="n">
-        <v>62.51556957974518</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M42" t="n">
-        <v>836.1457431290918</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N42" t="n">
-        <v>843.3417823958209</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O42" t="n">
-        <v>1547.298872941715</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P42" t="n">
-        <v>2109.004765430245</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q42" t="n">
-        <v>2109.004765430245</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R42" t="n">
-        <v>2109.004765430245</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S42" t="n">
-        <v>2001.014755544554</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T42" t="n">
-        <v>1841.672891731562</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U42" t="n">
-        <v>1644.322080869781</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V42" t="n">
-        <v>1430.610553862815</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W42" t="n">
-        <v>1217.377385599144</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X42" t="n">
-        <v>1041.051403738036</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y42" t="n">
-        <v>881.6494441018662</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2252.509540502872</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C43" t="n">
-        <v>2081.416168064588</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D43" t="n">
-        <v>1921.921523387498</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E43" t="n">
-        <v>1761.010708255818</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F43" t="n">
-        <v>1596.379582366409</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G43" t="n">
-        <v>1596.379582366409</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
-        <v>1596.379582366409</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
-        <v>1596.379582366409</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>1610.46213177162</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>1765.014459493858</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>2024.911559773918</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>2314.175616214412</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>2595.014398608662</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>2854.575008935136</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>3060.250449184748</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>3125.778478987259</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>3125.778478987259</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S43" t="n">
-        <v>3125.778478987259</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T43" t="n">
-        <v>3125.778478987259</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U43" t="n">
-        <v>3125.778478987259</v>
+        <v>1068.179960412907</v>
       </c>
       <c r="V43" t="n">
-        <v>3125.778478987259</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W43" t="n">
-        <v>2903.288807648468</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X43" t="n">
-        <v>2664.944945508152</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y43" t="n">
-        <v>2440.209246896916</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1204.579069685069</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C44" t="n">
-        <v>794.4544789983397</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D44" t="n">
-        <v>794.4544789983397</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E44" t="n">
-        <v>794.4544789983397</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F44" t="n">
-        <v>373.4240669520272</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G44" t="n">
-        <v>373.4240669520272</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H44" t="n">
-        <v>62.51556957974518</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I44" t="n">
-        <v>62.51556957974518</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>316.7010410474995</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K44" t="n">
-        <v>854.8605421565389</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
-        <v>1567.451941968777</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>1567.451941968777</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>1591.273272166145</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>2234.90412858325</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>2764.060826502402</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>3085.221833297694</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>3125.778478987259</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>3125.778478987259</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>2903.571994934118</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>2800.140621097348</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V44" t="n">
-        <v>2800.140621097348</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W44" t="n">
-        <v>2416.380320232516</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X44" t="n">
-        <v>2015.736922401469</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y44" t="n">
-        <v>1614.800249349559</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1758.120125023293</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>1624.125053772239</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>1507.227895991632</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>1386.73507998396</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>1277.775200166464</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>1170.785087480803</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>1100.037874516519</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>1079.289283136759</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>1079.289283136759</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>1079.289283136759</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L45" t="n">
-        <v>1079.289283136759</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M45" t="n">
-        <v>1086.485322403488</v>
+        <v>1392.027034650488</v>
       </c>
       <c r="N45" t="n">
-        <v>1860.115495952835</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O45" t="n">
-        <v>2564.072586498729</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P45" t="n">
-        <v>3125.778478987259</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q45" t="n">
-        <v>3125.778478987259</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
-        <v>3125.778478987259</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>3017.788469101568</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>2858.446605288576</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>2661.095794426795</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>2447.384267419829</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>2234.151099156157</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>2057.82511729505</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>1898.42315765888</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1596.379582366409</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="C46" t="n">
-        <v>1596.379582366409</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="D46" t="n">
-        <v>1596.379582366409</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E46" t="n">
-        <v>1596.379582366409</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F46" t="n">
-        <v>1596.379582366409</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G46" t="n">
-        <v>1596.379582366409</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
-        <v>1596.379582366409</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
-        <v>1596.379582366409</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>1610.46213177162</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>1765.014459493858</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>2024.911559773918</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>2314.175616214412</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>2595.014398608662</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>2854.575008935136</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>3060.250449184748</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>3125.778478987259</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>3040.505760662659</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S46" t="n">
-        <v>2854.113992542569</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T46" t="n">
-        <v>2614.565253519271</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U46" t="n">
-        <v>2331.767106065395</v>
+        <v>1068.179960412907</v>
       </c>
       <c r="V46" t="n">
-        <v>2113.793108997851</v>
+        <v>1068.179960412907</v>
       </c>
       <c r="W46" t="n">
-        <v>1834.723444506726</v>
+        <v>789.1102959217815</v>
       </c>
       <c r="X46" t="n">
-        <v>1596.379582366409</v>
+        <v>550.7664337814649</v>
       </c>
       <c r="Y46" t="n">
-        <v>1596.379582366409</v>
+        <v>326.0307351702296</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>596.4554908421626</v>
       </c>
       <c r="M2" t="n">
-        <v>594.2603172363632</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
         <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
         <v>90.03380439915205</v>
@@ -8061,22 +8063,22 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>564.4415429491205</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>392.2643757374379</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
         <v>88.85829947169823</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>313.1389295542603</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>535.1658287548267</v>
       </c>
       <c r="N5" t="n">
-        <v>853.701196452193</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>743.321953824879</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>628.1510783507341</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,16 +8297,16 @@
         <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>765.2836581746869</v>
+        <v>564.2543476875378</v>
       </c>
       <c r="N6" t="n">
-        <v>834.6380131405647</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
         <v>57.751479</v>
@@ -8450,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>243.4818150137217</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
         <v>632.7318453389136</v>
@@ -8459,22 +8461,22 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
         <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>628.1510783507341</v>
+        <v>311.4682568862053</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,19 +8531,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>305.1060755964293</v>
       </c>
       <c r="M9" t="n">
-        <v>171.8023397888825</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>834.6380131405647</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O9" t="n">
         <v>768.8192472281761</v>
@@ -8553,7 +8555,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,16 +8689,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
-        <v>196.9761962705724</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>874.7348442038602</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
         <v>853.701196452193</v>
@@ -8705,13 +8707,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,22 +8768,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>399.3111077937234</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>53.19339339374999</v>
+        <v>156.8778172579053</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
         <v>621.6393243851574</v>
@@ -8924,16 +8926,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>874.7348442038602</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
         <v>853.701196452193</v>
@@ -8942,13 +8944,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>275.6993258972541</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,10 +9005,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
         <v>723.8803540323523</v>
@@ -9015,10 +9017,10 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>424.7983178153489</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>57.751479</v>
+        <v>695.0063011010592</v>
       </c>
       <c r="P15" t="n">
         <v>621.6393243851574</v>
@@ -9182,7 +9184,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R17" t="n">
         <v>128.2784515920617</v>
@@ -9243,22 +9245,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>176.7732988419765</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
@@ -9416,7 +9418,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P20" t="n">
-        <v>628.1510783507341</v>
+        <v>628.1510783507342</v>
       </c>
       <c r="Q20" t="n">
         <v>414.4388617681339</v>
@@ -9480,10 +9482,10 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>560.7155587704844</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
         <v>909.0562844399999</v>
@@ -9492,10 +9494,10 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>141.7522481051737</v>
       </c>
       <c r="Q21" t="n">
         <v>56.69261850483872</v>
@@ -9957,16 +9959,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>390.9373608629449</v>
+        <v>605.6544519663084</v>
       </c>
       <c r="P27" t="n">
         <v>54.25963500280375</v>
@@ -10194,16 +10196,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>390.9373608629449</v>
+        <v>605.6544519663084</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
@@ -10607,7 +10609,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920627</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,22 +10664,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>583.8332741668524</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O36" t="n">
-        <v>57.751479</v>
+        <v>574.6635313430241</v>
       </c>
       <c r="P36" t="n">
         <v>54.25963500280375</v>
@@ -10686,7 +10688,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10902,19 +10904,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>70.76403821083073</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N39" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
@@ -11057,16 +11059,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
-        <v>700.6721024301172</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
         <v>853.701196452193</v>
@@ -11078,10 +11080,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11145,16 +11147,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>839.0089034852322</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N42" t="n">
-        <v>60.46211992579963</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P42" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
         <v>56.69261850483872</v>
@@ -11303,10 +11305,10 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>116.974240450931</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
         <v>743.321953824879</v>
@@ -11376,22 +11378,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>64.83301027046694</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N45" t="n">
-        <v>834.6380131405647</v>
+        <v>808.4518367176235</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
         <v>56.69261850483872</v>
@@ -23258,19 +23260,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>100.6186320935562</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,13 +23311,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>45.55681957368046</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -23413,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>93.42449318090658</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
         <v>115.1825854367171</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>55.35263051300456</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -23498,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>187.9942390719856</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>211.9061378632481</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23668,10 +23670,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>82.68617307340611</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>55.35263051300456</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23750,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23789,13 +23791,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>45.84716204233393</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>356.9958808389729</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23887,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>57.20702133496266</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.577887163712</v>
@@ -23908,7 +23910,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>170.5352159497216</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23969,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>36.46078111520814</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24017,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>96.14494677818598</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24026,7 +24028,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24136,13 +24138,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>56.01419322081128</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>93.42449318090684</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
         <v>115.1825854367171</v>
@@ -24187,7 +24189,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24215,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>37.84312462897441</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>49.19646844041357</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>23.43534020052158</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>188.1972538326797</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24455,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>37.84312462897442</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24598,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.6935154888944</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
@@ -24619,7 +24621,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>65.59175760416488</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24683,10 +24685,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>32.28731256679833</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24728,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24847,10 +24849,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>29.63107290259944</v>
       </c>
       <c r="H31" t="n">
         <v>148.1113806425979</v>
@@ -24883,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>164.1762662001699</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24923,10 +24925,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>25.66401796922133</v>
       </c>
       <c r="F32" t="n">
-        <v>222.4997066824609</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24968,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>93.42449318090658</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,22 +25128,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>21.63257428841578</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25166,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>404.6410012660961</v>
+        <v>49.1964684404129</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25217,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>37.84312462897429</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>161.5463431013358</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>164.1762662001699</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25409,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>3.083197172522006</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>62.56142803888764</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25546,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.1113806425979</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>55.35263051300471</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>29.73310367966317</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25631,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>205.1535156364844</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>134.6847134965114</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25783,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>165.577887163712</v>
@@ -25831,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>40.6877205050626</v>
       </c>
       <c r="W43" t="n">
-        <v>56.01419322081159</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25868,19 +25870,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>49.19646844041392</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -25913,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>152.0928267246827</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>113.2632404556123</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
@@ -26074,13 +26076,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>55.35263051300458</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>763485.2508650667</v>
+        <v>755309.9793904063</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>763485.2508650667</v>
+        <v>772744.6254937623</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>553510.9720271489</v>
+        <v>696136.0518048833</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>553510.9720271491</v>
+        <v>696136.0518048834</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>696136.0518048835</v>
+        <v>696136.0518048834</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>696136.0518048834</v>
+        <v>696136.0518048833</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>696136.0518048835</v>
+        <v>696136.0518048832</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>696136.0518048835</v>
+        <v>696136.0518048833</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>696136.0518048833</v>
+        <v>696136.0518048834</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>696136.0518048835</v>
+        <v>696136.0518048834</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>696136.0518048834</v>
+        <v>696136.0518048835</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>553510.9720271489</v>
+        <v>696136.0518048835</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>553510.9720271491</v>
+        <v>696136.0518048834</v>
       </c>
     </row>
   </sheetData>
@@ -26314,34 +26316,34 @@
         <v>423494.2218843881</v>
       </c>
       <c r="C2" t="n">
-        <v>423494.2218843881</v>
+        <v>423494.221884388</v>
       </c>
       <c r="D2" t="n">
-        <v>423494.2218843881</v>
+        <v>423494.221884388</v>
       </c>
       <c r="E2" t="n">
-        <v>299418.5116619823</v>
+        <v>376543.2677956218</v>
       </c>
       <c r="F2" t="n">
-        <v>299418.5116619822</v>
+        <v>376543.267795622</v>
       </c>
       <c r="G2" t="n">
-        <v>376543.2677956217</v>
+        <v>376543.2677956218</v>
       </c>
       <c r="H2" t="n">
-        <v>376543.2677956221</v>
+        <v>376543.267795622</v>
       </c>
       <c r="I2" t="n">
+        <v>376543.2677956218</v>
+      </c>
+      <c r="J2" t="n">
+        <v>376543.2677956218</v>
+      </c>
+      <c r="K2" t="n">
+        <v>376543.2677956219</v>
+      </c>
+      <c r="L2" t="n">
         <v>376543.267795622</v>
-      </c>
-      <c r="J2" t="n">
-        <v>376543.2677956221</v>
-      </c>
-      <c r="K2" t="n">
-        <v>376543.267795622</v>
-      </c>
-      <c r="L2" t="n">
-        <v>376543.2677956218</v>
       </c>
       <c r="M2" t="n">
         <v>376543.2677956219</v>
@@ -26350,10 +26352,10 @@
         <v>376543.2677956219</v>
       </c>
       <c r="O2" t="n">
-        <v>299418.5116619823</v>
+        <v>376543.267795622</v>
       </c>
       <c r="P2" t="n">
-        <v>299418.5116619823</v>
+        <v>376543.2677956218</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
-        <v>83798.41355755916</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>171827.4689100684</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>26968.95418093434</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>105276.4874158736</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
-        <v>66756.38191600547</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>139999.3108647527</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>22509.26477404757</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,31 +26420,31 @@
         <v>193745.8212557931</v>
       </c>
       <c r="C4" t="n">
-        <v>156310.5328694163</v>
+        <v>193745.821255793</v>
       </c>
       <c r="D4" t="n">
-        <v>156310.5328694163</v>
+        <v>113911.0406229378</v>
       </c>
       <c r="E4" t="n">
-        <v>47359.25552681974</v>
+        <v>59647.11115782198</v>
       </c>
       <c r="F4" t="n">
-        <v>47359.25552681975</v>
+        <v>59647.11115782198</v>
       </c>
       <c r="G4" t="n">
+        <v>59647.11115782197</v>
+      </c>
+      <c r="H4" t="n">
         <v>59647.11115782198</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>59647.11115782197</v>
       </c>
-      <c r="I4" t="n">
-        <v>59647.11115782198</v>
-      </c>
       <c r="J4" t="n">
-        <v>59647.11115782198</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="K4" t="n">
-        <v>59647.11115782198</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="L4" t="n">
         <v>59647.11115782197</v>
@@ -26451,13 +26453,13 @@
         <v>59647.11115782198</v>
       </c>
       <c r="N4" t="n">
-        <v>59647.11115782198</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="O4" t="n">
-        <v>47359.25552681975</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="P4" t="n">
-        <v>47359.25552681975</v>
+        <v>59647.11115782197</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26472,16 @@
         <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>81139.43288060633</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>81139.43288060633</v>
+        <v>99001.07135520024</v>
       </c>
       <c r="E5" t="n">
-        <v>47511.83288060634</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="F5" t="n">
-        <v>47511.83288060634</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26500,16 +26502,16 @@
         <v>70865.21024487332</v>
       </c>
       <c r="M5" t="n">
+        <v>70865.21024487333</v>
+      </c>
+      <c r="N5" t="n">
+        <v>70865.21024487333</v>
+      </c>
+      <c r="O5" t="n">
         <v>70865.21024487332</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>70865.21024487332</v>
-      </c>
-      <c r="O5" t="n">
-        <v>47511.83288060634</v>
-      </c>
-      <c r="P5" t="n">
-        <v>47511.83288060634</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-10576.17434301662</v>
+        <v>-10576.17434301664</v>
       </c>
       <c r="C6" t="n">
-        <v>102245.8425768064</v>
+        <v>164379.3355500974</v>
       </c>
       <c r="D6" t="n">
-        <v>186044.2561343655</v>
+        <v>38754.64099618164</v>
       </c>
       <c r="E6" t="n">
-        <v>204547.4232545562</v>
+        <v>219061.9922119922</v>
       </c>
       <c r="F6" t="n">
-        <v>204547.4232545561</v>
+        <v>246030.9463929267</v>
       </c>
       <c r="G6" t="n">
-        <v>140754.4589770528</v>
+        <v>246030.9463929266</v>
       </c>
       <c r="H6" t="n">
-        <v>246030.9463929268</v>
+        <v>246030.9463929267</v>
       </c>
       <c r="I6" t="n">
-        <v>246030.9463929267</v>
+        <v>246030.9463929266</v>
       </c>
       <c r="J6" t="n">
-        <v>109436.1455870318</v>
+        <v>109436.1455870315</v>
       </c>
       <c r="K6" t="n">
-        <v>179274.5644769212</v>
+        <v>246030.9463929266</v>
       </c>
       <c r="L6" t="n">
-        <v>246030.9463929266</v>
+        <v>106031.6355281741</v>
       </c>
       <c r="M6" t="n">
-        <v>246030.9463929267</v>
+        <v>223521.6816188791</v>
       </c>
       <c r="N6" t="n">
         <v>246030.9463929266</v>
       </c>
       <c r="O6" t="n">
-        <v>204547.4232545562</v>
+        <v>246030.9463929267</v>
       </c>
       <c r="P6" t="n">
-        <v>204547.4232545562</v>
+        <v>246030.9463929265</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26792,16 @@
         <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>781.4446197468147</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>781.4446197468147</v>
+        <v>1075.221568342109</v>
       </c>
       <c r="E4" t="n">
-        <v>781.4446197468147</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="F4" t="n">
-        <v>781.4446197468147</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>781.4446197468147</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>781.4446197468147</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -27012,19 +27014,19 @@
         <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>259.3810493767892</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>553.1579979720838</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>90.32465279067557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>384.1016013859702</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
-        <v>259.3810493767892</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720838</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>90.3246527906758</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
-        <v>259.3810493767892</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720838</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>90.32465279067557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>384.1016013859702</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,25 +27381,25 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>400</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>400</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>89.59683424088536</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>80.24312864881767</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>106.5473611880255</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
@@ -27552,10 +27554,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,13 +27587,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>55.35263051300493</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>181.7269070945871</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>12.21906234721848</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -27777,19 +27779,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>148.8884492331958</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -27822,22 +27824,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>194.7158398879886</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>231.834820912263</v>
+        <v>45.8156973240178</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28013,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>126.9450269688242</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
         <v>159.3017069803637</v>
@@ -28059,19 +28061,19 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>150.2766934455455</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="M2" t="n">
-        <v>500.9700927793178</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,22 +34783,22 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>506.6900639491205</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>338.0047407346341</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>29.85810036629282</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>239.8153382209524</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>441.8756042977813</v>
       </c>
       <c r="N5" t="n">
-        <v>760.7889056955737</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>650.1321781990958</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
-        <v>534.50171506985</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,16 +35017,16 @@
         <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>707.7193744362695</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="N6" t="n">
-        <v>781.4446197468147</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35170,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>170.1582236804138</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
         <v>543.5954556656965</v>
@@ -35179,22 +35181,22 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
         <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>534.50171506985</v>
+        <v>217.8188936053212</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>248.9915517855802</v>
       </c>
       <c r="M9" t="n">
-        <v>114.238056050465</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>781.4446197468147</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O9" t="n">
         <v>711.0677682281761</v>
@@ -35273,7 +35275,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,16 +35409,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
-        <v>101.4907982077276</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>781.4446197468147</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
         <v>760.7889056955737</v>
@@ -35425,13 +35427,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>341.746824055306</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>103.6844238641553</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
         <v>567.3796893823536</v>
@@ -35644,16 +35646,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>781.4446197468147</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
         <v>760.7889056955737</v>
@@ -35662,13 +35664,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>182.0499626163699</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>667.7658302215033</v>
@@ -35735,10 +35737,10 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>371.6049244215989</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>637.2548221010592</v>
       </c>
       <c r="P15" t="n">
         <v>567.3796893823536</v>
@@ -35902,7 +35904,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R17" t="n">
         <v>40.9663087773382</v>
@@ -35963,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>120.9475160573611</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36136,7 +36138,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P20" t="n">
-        <v>534.50171506985</v>
+        <v>534.5017150698501</v>
       </c>
       <c r="Q20" t="n">
         <v>324.4050573689818</v>
@@ -36200,10 +36202,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>504.6010349596355</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
         <v>851.4920007015825</v>
@@ -36212,10 +36214,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>87.49261310237</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36677,16 +36679,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>333.1858818629449</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36914,16 +36916,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>333.1858818629449</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37327,7 +37329,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733921</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>530.6398807731025</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>516.9120523430241</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37406,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
@@ -37622,19 +37624,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>13.19975447241331</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N39" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37777,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
-        <v>605.1867043672723</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
         <v>760.7889056955737</v>
@@ -37798,10 +37800,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,16 +37867,16 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>781.4446197468147</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N42" t="n">
-        <v>7.268726532049641</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P42" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38023,10 +38025,10 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>24.06194969431164</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
         <v>650.1321781990958</v>
@@ -38096,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>7.268726532049526</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N45" t="n">
-        <v>781.4446197468147</v>
+        <v>755.2584433238735</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1428461.765543044</v>
+        <v>1427149.120087465</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5301029.811029744</v>
+        <v>5301029.811029742</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2166967.111789207</v>
+        <v>2166967.111789206</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8236407.610298987</v>
+        <v>8236407.610298988</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>405.4510512038943</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
         <v>10.19681332827224</v>
@@ -673,7 +673,7 @@
         <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>299.6795692073654</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9.449993683746614</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
@@ -882,10 +882,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>180.6077930059085</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -901,22 +901,22 @@
         <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>344.7181025298968</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.7036355089646</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1056,25 +1056,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>42.43741174507631</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>175.4647255438872</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -1147,7 +1147,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>138.8408847294698</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>208.6741894990672</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>42.43741174507644</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>98.94574135710867</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>174.4275996389293</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
         <v>254.489886823085</v>
@@ -1432,13 +1432,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>71.36683641495289</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>61.4894057973171</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
@@ -1593,10 +1593,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059089</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1615,19 +1615,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>361.0003448878583</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>216.6467621941105</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>220.2647746254034</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>219.9844192126098</v>
@@ -1906,7 +1906,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>22.92681701721022</v>
+        <v>71.36683641495289</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
@@ -2010,16 +2010,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>102.0946856454011</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>134.4886501551777</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,16 +2083,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>363.9585094926619</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>404.6410012660961</v>
@@ -2101,7 +2101,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>59.82422708687632</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>106.9706214097034</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>271.0770354214525</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
@@ -2335,10 +2335,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>119.8051733265735</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.73179601342657</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>115.1825854367171</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>118.3058216625343</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>82.94963377719351</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2569,13 +2569,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>355.4445328256823</v>
+        <v>358.7938392237629</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -2715,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>271.0770354214525</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>210.6872102420495</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2797,10 +2797,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>368.1319780410717</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
@@ -2812,7 +2812,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2961,10 +2961,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>51.94888097361989</v>
       </c>
       <c r="G31" t="n">
-        <v>135.9468142611126</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -3037,19 +3037,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>384.5327953590509</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>304.7162152260364</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>254.489886823085</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
@@ -3201,13 +3201,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>54.68688746169133</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3249,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>102.4749735488913</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -3280,13 +3280,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>355.4445328256832</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>31.42227043795242</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3426,25 +3426,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>48.07095504041195</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>22.98150733755302</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3511,7 +3511,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>307.6908193123841</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>251.406689650563</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3672,10 +3672,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>209.8525078025122</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>206.2273198392503</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3754,10 +3754,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>269.9562877695847</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -3793,13 +3793,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>123.8394724344234</v>
       </c>
       <c r="U41" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
@@ -3900,16 +3900,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3957,10 +3957,10 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>230.4591671048107</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>126.1173179761701</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
@@ -3985,7 +3985,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>361.0003448878583</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
@@ -3994,10 +3994,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,13 +4030,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>123.8394724344234</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>72.55946887449164</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>271.0770354214525</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1378.723472461974</v>
+        <v>570.0645900620057</v>
       </c>
       <c r="C2" t="n">
-        <v>968.5988817752439</v>
+        <v>160.5180736944356</v>
       </c>
       <c r="D2" t="n">
-        <v>564.1349518683044</v>
+        <v>160.0945478279002</v>
       </c>
       <c r="E2" t="n">
-        <v>553.8351404256051</v>
+        <v>149.794736385201</v>
       </c>
       <c r="F2" t="n">
-        <v>536.8451324196967</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G2" t="n">
         <v>128.1168483125289</v>
@@ -4330,16 +4330,16 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L2" t="n">
-        <v>1054.568412147452</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M2" t="n">
-        <v>1571.411346813777</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N2" t="n">
         <v>2088.254281480102</v>
@@ -4357,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U2" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V2" t="n">
-        <v>2088.254281480102</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="W2" t="n">
-        <v>1785.547645917107</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="X2" t="n">
-        <v>1384.904248086059</v>
+        <v>980.2857697264951</v>
       </c>
       <c r="Y2" t="n">
-        <v>1384.904248086059</v>
+        <v>980.2857697264951</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161367</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650825</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844749</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768029</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593075</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G3" t="n">
         <v>133.260889973646</v>
@@ -4406,25 +4406,25 @@
         <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922353</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>690.384199457534</v>
+        <v>508.1659581184966</v>
       </c>
       <c r="L3" t="n">
-        <v>1207.227134123859</v>
+        <v>508.1659581184966</v>
       </c>
       <c r="M3" t="n">
-        <v>1724.070068790184</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="N3" t="n">
-        <v>1724.070068790184</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O3" t="n">
-        <v>1724.070068790184</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P3" t="n">
         <v>2058.694762117472</v>
@@ -4454,7 +4454,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517234</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.76508562960205</v>
+        <v>51.31053379500267</v>
       </c>
       <c r="C4" t="n">
         <v>41.76508562960205</v>
@@ -4518,22 +4518,22 @@
         <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1059.950756782464</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="U4" t="n">
-        <v>777.1526093285881</v>
+        <v>1016.701348351886</v>
       </c>
       <c r="V4" t="n">
-        <v>503.2668642681101</v>
+        <v>742.815603291408</v>
       </c>
       <c r="W4" t="n">
-        <v>224.1971997769844</v>
+        <v>463.7459388002824</v>
       </c>
       <c r="X4" t="n">
-        <v>41.76508562960205</v>
+        <v>463.7459388002824</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.76508562960205</v>
+        <v>239.0102401890471</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>881.5511617534477</v>
+        <v>1946.792430650117</v>
       </c>
       <c r="C5" t="n">
-        <v>875.4669751071218</v>
+        <v>1940.708244003792</v>
       </c>
       <c r="D5" t="n">
-        <v>875.0434492405864</v>
+        <v>1536.244314096852</v>
       </c>
       <c r="E5" t="n">
-        <v>864.7436377978871</v>
+        <v>1121.904098613749</v>
       </c>
       <c r="F5" t="n">
-        <v>847.7536297919787</v>
+        <v>700.8736865674364</v>
       </c>
       <c r="G5" t="n">
-        <v>439.0253456848109</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H5" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
@@ -4576,43 +4576,43 @@
         <v>295.9505570973564</v>
       </c>
       <c r="M5" t="n">
-        <v>733.4074053521598</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N5" t="n">
-        <v>1250.250340018485</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O5" t="n">
-        <v>1767.09327468481</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P5" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>1866.047797426961</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>1608.987305686471</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V5" t="n">
-        <v>1259.149751022952</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W5" t="n">
-        <v>887.7319373775331</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X5" t="n">
-        <v>887.7319373775331</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="Y5" t="n">
-        <v>887.7319373775331</v>
+        <v>1952.973206274203</v>
       </c>
     </row>
     <row r="6">
@@ -4655,13 +4655,13 @@
         <v>690.384199457534</v>
       </c>
       <c r="M6" t="n">
+        <v>690.384199457534</v>
+      </c>
+      <c r="N6" t="n">
+        <v>690.384199457534</v>
+      </c>
+      <c r="O6" t="n">
         <v>1192.007362767163</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1708.850297433488</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1708.850297433488</v>
       </c>
       <c r="P6" t="n">
         <v>1708.850297433488</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.76508562960205</v>
+        <v>981.4914807361952</v>
       </c>
       <c r="C7" t="n">
-        <v>41.76508562960205</v>
+        <v>810.3981082979117</v>
       </c>
       <c r="D7" t="n">
-        <v>41.76508562960205</v>
+        <v>650.9034636208218</v>
       </c>
       <c r="E7" t="n">
-        <v>41.76508562960205</v>
+        <v>489.9926484891412</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960205</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4755,22 +4755,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1528.297909780678</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>1245.499762326802</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>971.614017266324</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>692.5443527751984</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X7" t="n">
-        <v>454.2004906348818</v>
+        <v>1393.926885741475</v>
       </c>
       <c r="Y7" t="n">
-        <v>229.4647920236465</v>
+        <v>1169.19118713024</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2144.705157697622</v>
+        <v>1876.220191499009</v>
       </c>
       <c r="C8" t="n">
-        <v>1734.580567010892</v>
+        <v>1466.095600812279</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.116637103952</v>
+        <v>1061.63167090534</v>
       </c>
       <c r="E8" t="n">
-        <v>915.7764216208491</v>
+        <v>647.2914554222366</v>
       </c>
       <c r="F8" t="n">
-        <v>494.7460095745366</v>
+        <v>226.2610433759241</v>
       </c>
       <c r="G8" t="n">
-        <v>86.01772546736875</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="H8" t="n">
-        <v>86.01772546736875</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="I8" t="n">
-        <v>86.01772546736875</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J8" t="n">
-        <v>340.2031969351231</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="K8" t="n">
-        <v>878.3626980441626</v>
+        <v>524.2900591047148</v>
       </c>
       <c r="L8" t="n">
-        <v>1590.9540978564</v>
+        <v>1236.881458916953</v>
       </c>
       <c r="M8" t="n">
-        <v>2367.272688848154</v>
+        <v>2013.200049908707</v>
       </c>
       <c r="N8" t="n">
-        <v>3120.453705486772</v>
+        <v>2766.381066547325</v>
       </c>
       <c r="O8" t="n">
-        <v>3764.084561903877</v>
+        <v>3410.01192296443</v>
       </c>
       <c r="P8" t="n">
-        <v>3979.725266573145</v>
+        <v>3939.168620883581</v>
       </c>
       <c r="Q8" t="n">
-        <v>4300.886273368437</v>
+        <v>4260.329627678873</v>
       </c>
       <c r="R8" t="n">
-        <v>4300.886273368437</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="S8" t="n">
-        <v>4300.886273368437</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="T8" t="n">
-        <v>4300.886273368437</v>
+        <v>4078.679789315297</v>
       </c>
       <c r="U8" t="n">
-        <v>4090.10426377342</v>
+        <v>3821.619297574807</v>
       </c>
       <c r="V8" t="n">
-        <v>3740.266709109901</v>
+        <v>3471.781742911288</v>
       </c>
       <c r="W8" t="n">
-        <v>3356.506408245069</v>
+        <v>3088.021442046456</v>
       </c>
       <c r="X8" t="n">
-        <v>2955.863010414022</v>
+        <v>2687.378044215409</v>
       </c>
       <c r="Y8" t="n">
-        <v>2554.926337362112</v>
+        <v>2286.441371163499</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>106.7663168471286</v>
       </c>
       <c r="I9" t="n">
-        <v>86.01772546736875</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J9" t="n">
         <v>278.830583030002</v>
       </c>
       <c r="K9" t="n">
-        <v>278.830583030002</v>
+        <v>734.6368392953007</v>
       </c>
       <c r="L9" t="n">
-        <v>525.3322192977264</v>
+        <v>1191.397044782725</v>
       </c>
       <c r="M9" t="n">
-        <v>525.3322192977264</v>
+        <v>1191.397044782725</v>
       </c>
       <c r="N9" t="n">
-        <v>1398.990311409344</v>
+        <v>1191.397044782725</v>
       </c>
       <c r="O9" t="n">
-        <v>2102.947401955239</v>
+        <v>1191.397044782725</v>
       </c>
       <c r="P9" t="n">
-        <v>2102.947401955239</v>
+        <v>1753.102937271255</v>
       </c>
       <c r="Q9" t="n">
         <v>2102.947401955239</v>
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>128.8837979371429</v>
+        <v>1004.258203330222</v>
       </c>
       <c r="C10" t="n">
-        <v>86.01772546736875</v>
+        <v>1004.258203330222</v>
       </c>
       <c r="D10" t="n">
-        <v>86.01772546736875</v>
+        <v>844.7635586531319</v>
       </c>
       <c r="E10" t="n">
-        <v>86.01772546736875</v>
+        <v>683.8527435214513</v>
       </c>
       <c r="F10" t="n">
-        <v>86.01772546736875</v>
+        <v>519.2216176320426</v>
       </c>
       <c r="G10" t="n">
-        <v>86.01772546736875</v>
+        <v>351.971226557586</v>
       </c>
       <c r="H10" t="n">
-        <v>86.01772546736875</v>
+        <v>202.3637713630426</v>
       </c>
       <c r="I10" t="n">
-        <v>86.01772546736875</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J10" t="n">
         <v>100.1002748725793</v>
       </c>
       <c r="K10" t="n">
-        <v>254.6526025948172</v>
+        <v>254.6526025948173</v>
       </c>
       <c r="L10" t="n">
         <v>514.5497028748778</v>
@@ -4986,28 +4986,28 @@
         <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1615.416622088219</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="S10" t="n">
-        <v>1615.416622088219</v>
+        <v>1343.752135643529</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.416622088219</v>
+        <v>1104.203396620231</v>
       </c>
       <c r="U10" t="n">
-        <v>1332.618474634343</v>
+        <v>1004.258203330222</v>
       </c>
       <c r="V10" t="n">
-        <v>1058.732729573865</v>
+        <v>1004.258203330222</v>
       </c>
       <c r="W10" t="n">
-        <v>779.6630650827392</v>
+        <v>1004.258203330222</v>
       </c>
       <c r="X10" t="n">
-        <v>541.3192029424226</v>
+        <v>1004.258203330222</v>
       </c>
       <c r="Y10" t="n">
-        <v>316.5835043311873</v>
+        <v>1004.258203330222</v>
       </c>
     </row>
     <row r="11">
@@ -5041,10 +5041,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
         <v>1598.180070079655</v>
@@ -5068,22 +5068,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T11" t="n">
-        <v>4350.714314740463</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U11" t="n">
-        <v>4093.653822999973</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V11" t="n">
-        <v>3743.816268336454</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W11" t="n">
-        <v>3360.055967471622</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X11" t="n">
-        <v>2959.412569640574</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y11" t="n">
         <v>2959.412569640574</v>
@@ -5126,19 +5126,19 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>741.8628115185547</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M12" t="n">
-        <v>741.8628115185547</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N12" t="n">
-        <v>844.5103911440685</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O12" t="n">
-        <v>1548.467481689963</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P12" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q12" t="n">
         <v>2110.173374178493</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="C13" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="D13" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="E13" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="F13" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G13" t="n">
         <v>93.2436976906228</v>
@@ -5223,28 +5223,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T13" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U13" t="n">
-        <v>828.6312213896092</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V13" t="n">
-        <v>554.7454763291312</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W13" t="n">
-        <v>275.6758118380055</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X13" t="n">
-        <v>93.2436976906228</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.2436976906228</v>
+        <v>322.6045996714603</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2359.298219196301</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C14" t="n">
-        <v>1949.173628509571</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D14" t="n">
-        <v>1544.709698602632</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E14" t="n">
-        <v>1130.369483119528</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F14" t="n">
-        <v>709.339071073216</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G14" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H14" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
@@ -5311,19 +5311,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U14" t="n">
-        <v>4304.697325272099</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V14" t="n">
-        <v>3954.85977060858</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W14" t="n">
-        <v>3571.099469743748</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X14" t="n">
-        <v>3170.456071912701</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y14" t="n">
-        <v>2769.519398860791</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="15">
@@ -5360,25 +5360,25 @@
         <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>947.1447271725442</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M15" t="n">
-        <v>947.1447271725442</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N15" t="n">
-        <v>947.1447271725442</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O15" t="n">
-        <v>1578.027001052593</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P15" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R15" t="n">
         <v>2139.732893541123</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.2436976906228</v>
+        <v>749.3736558270855</v>
       </c>
       <c r="C16" t="n">
-        <v>93.2436976906228</v>
+        <v>578.280283388802</v>
       </c>
       <c r="D16" t="n">
-        <v>93.2436976906228</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="E16" t="n">
-        <v>93.2436976906228</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F16" t="n">
         <v>93.2436976906228</v>
@@ -5460,28 +5460,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T16" t="n">
-        <v>1111.429368843485</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U16" t="n">
-        <v>828.6312213896092</v>
+        <v>1400.152922972682</v>
       </c>
       <c r="V16" t="n">
-        <v>554.7454763291312</v>
+        <v>1400.152922972682</v>
       </c>
       <c r="W16" t="n">
-        <v>275.6758118380055</v>
+        <v>1400.152922972682</v>
       </c>
       <c r="X16" t="n">
-        <v>93.2436976906228</v>
+        <v>1161.809060832365</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.2436976906228</v>
+        <v>937.0733622211299</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2462.839627293158</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C17" t="n">
-        <v>2052.715036606428</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E17" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F17" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G17" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H17" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5518,7 +5518,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674167</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5542,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T17" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U17" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W17" t="n">
-        <v>3674.640877840605</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X17" t="n">
-        <v>3273.997480009557</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y17" t="n">
-        <v>2873.060806957647</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>212.9817385874103</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>874.0699105066985</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M18" t="n">
-        <v>874.0699105066985</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N18" t="n">
-        <v>874.0699105066985</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O18" t="n">
-        <v>1578.027001052593</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>691.5887857917697</v>
+        <v>559.6788361748627</v>
       </c>
       <c r="C19" t="n">
-        <v>520.4954133534862</v>
+        <v>388.5854637365792</v>
       </c>
       <c r="D19" t="n">
-        <v>361.0007686763963</v>
+        <v>229.0908190594892</v>
       </c>
       <c r="E19" t="n">
-        <v>257.8748235800315</v>
+        <v>229.0908190594892</v>
       </c>
       <c r="F19" t="n">
-        <v>93.2436976906228</v>
+        <v>229.0908190594892</v>
       </c>
       <c r="G19" t="n">
-        <v>93.2436976906228</v>
+        <v>229.0908190594892</v>
       </c>
       <c r="H19" t="n">
         <v>93.2436976906228</v>
@@ -5697,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S19" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T19" t="n">
-        <v>1383.093855288175</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U19" t="n">
-        <v>1383.093855288175</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="V19" t="n">
-        <v>1383.093855288175</v>
+        <v>1077.092362806305</v>
       </c>
       <c r="W19" t="n">
-        <v>1104.024190797049</v>
+        <v>798.0226983151792</v>
       </c>
       <c r="X19" t="n">
-        <v>1104.024190797049</v>
+        <v>559.6788361748627</v>
       </c>
       <c r="Y19" t="n">
-        <v>879.2884921858141</v>
+        <v>559.6788361748627</v>
       </c>
     </row>
     <row r="20">
@@ -5731,22 +5731,22 @@
         <v>2102.237727455811</v>
       </c>
       <c r="C20" t="n">
-        <v>2102.237727455811</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>464.5807072718708</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>153.6722098995888</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5755,7 +5755,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674167</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5831,28 +5831,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>1210.13812587521</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M21" t="n">
-        <v>2053.115206569777</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N21" t="n">
-        <v>2053.115206569777</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O21" t="n">
-        <v>2053.115206569777</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3732.335952894417</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>3561.242580456134</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>3401.747935779044</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>3240.837120647363</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K22" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L22" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M22" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N22" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O22" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P22" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U22" t="n">
-        <v>4662.18488453114</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V22" t="n">
-        <v>4662.18488453114</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W22" t="n">
-        <v>4383.115220040014</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X22" t="n">
-        <v>4144.771357899697</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y22" t="n">
-        <v>3920.035659288462</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2151.931129920876</v>
+        <v>2359.298219196301</v>
       </c>
       <c r="C23" t="n">
-        <v>1741.806539234146</v>
+        <v>1949.173628509571</v>
       </c>
       <c r="D23" t="n">
-        <v>1337.342609327206</v>
+        <v>1544.709698602632</v>
       </c>
       <c r="E23" t="n">
-        <v>923.0023938441032</v>
+        <v>1130.369483119528</v>
       </c>
       <c r="F23" t="n">
-        <v>501.9719817977906</v>
+        <v>709.339071073216</v>
       </c>
       <c r="G23" t="n">
-        <v>93.2436976906228</v>
+        <v>300.6107869660482</v>
       </c>
       <c r="H23" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4576.597211790305</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T23" t="n">
-        <v>4354.390727737164</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U23" t="n">
-        <v>4097.330235996674</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V23" t="n">
-        <v>3747.492681333154</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W23" t="n">
-        <v>3363.732380468323</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X23" t="n">
-        <v>2963.088982637275</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y23" t="n">
-        <v>2562.152309585365</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3559.650304132187</v>
+        <v>537.7509497924339</v>
       </c>
       <c r="C25" t="n">
-        <v>3559.650304132187</v>
+        <v>537.7509497924339</v>
       </c>
       <c r="D25" t="n">
-        <v>3559.650304132187</v>
+        <v>537.7509497924339</v>
       </c>
       <c r="E25" t="n">
-        <v>3398.739489000507</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="F25" t="n">
-        <v>3398.739489000507</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="G25" t="n">
-        <v>3398.739489000507</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H25" t="n">
-        <v>3249.132033805963</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>4150.971659063151</v>
+        <v>1503.141764349317</v>
       </c>
       <c r="U25" t="n">
-        <v>3868.173511609275</v>
+        <v>1503.141764349317</v>
       </c>
       <c r="V25" t="n">
-        <v>3784.386002743423</v>
+        <v>1229.256019288839</v>
       </c>
       <c r="W25" t="n">
-        <v>3784.386002743423</v>
+        <v>950.1863547977135</v>
       </c>
       <c r="X25" t="n">
-        <v>3784.386002743423</v>
+        <v>950.1863547977135</v>
       </c>
       <c r="Y25" t="n">
-        <v>3559.650304132187</v>
+        <v>725.4506561864782</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2102.237727455811</v>
+        <v>2502.881125286859</v>
       </c>
       <c r="C26" t="n">
-        <v>1692.113136769081</v>
+        <v>2092.756534600129</v>
       </c>
       <c r="D26" t="n">
-        <v>1287.649206862142</v>
+        <v>1688.29260469319</v>
       </c>
       <c r="E26" t="n">
-        <v>873.3089913790386</v>
+        <v>1273.952389210086</v>
       </c>
       <c r="F26" t="n">
-        <v>452.2785793327262</v>
+        <v>852.921977163774</v>
       </c>
       <c r="G26" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H26" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K26" t="n">
         <v>885.5886702674165</v>
@@ -6238,7 +6238,7 @@
         <v>2374.498661071409</v>
       </c>
       <c r="N26" t="n">
-        <v>3127.679677710026</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O26" t="n">
         <v>3771.310534127132</v>
@@ -6268,10 +6268,10 @@
         <v>3314.038978003258</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172211</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="Y26" t="n">
-        <v>2512.458907120301</v>
+        <v>2913.102304951348</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>754.331869609911</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M27" t="n">
-        <v>1597.308950304478</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N27" t="n">
-        <v>1597.308950304478</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3740.630866053017</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
-        <v>3569.537493614734</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>3410.042848937644</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K28" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L28" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M28" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N28" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O28" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P28" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>4475.79311641105</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>4236.244377387751</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U28" t="n">
-        <v>3953.446229933875</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V28" t="n">
-        <v>3953.446229933875</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W28" t="n">
-        <v>3740.630866053017</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X28" t="n">
-        <v>3740.630866053017</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y28" t="n">
-        <v>3740.630866053017</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C29" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D29" t="n">
-        <v>1320.262653899312</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E29" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F29" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G29" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H29" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K29" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L29" t="n">
         <v>1598.180070079655</v>
@@ -6475,13 +6475,13 @@
         <v>2374.498661071409</v>
       </c>
       <c r="N29" t="n">
-        <v>3127.679677710026</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O29" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P29" t="n">
-        <v>4300.467232046282</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q29" t="n">
         <v>4621.628238841575</v>
@@ -6490,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W29" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M30" t="n">
-        <v>1597.308950304478</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N30" t="n">
-        <v>1597.308950304478</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>886.6936702322497</v>
+        <v>637.2161470827474</v>
       </c>
       <c r="C31" t="n">
-        <v>715.6002977939662</v>
+        <v>466.1227746444639</v>
       </c>
       <c r="D31" t="n">
-        <v>556.1056531168763</v>
+        <v>306.6281299673739</v>
       </c>
       <c r="E31" t="n">
-        <v>395.1948379851958</v>
+        <v>145.7173148356934</v>
       </c>
       <c r="F31" t="n">
-        <v>230.563712095787</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
         <v>93.2436976906228</v>
@@ -6645,28 +6645,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U31" t="n">
-        <v>1111.429368843485</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V31" t="n">
-        <v>1111.429368843485</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="W31" t="n">
-        <v>1111.429368843485</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="X31" t="n">
-        <v>1111.429368843485</v>
+        <v>861.9518456939827</v>
       </c>
       <c r="Y31" t="n">
-        <v>886.6936702322497</v>
+        <v>637.2161470827474</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2102.237727455811</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C32" t="n">
-        <v>1692.113136769081</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D32" t="n">
-        <v>1287.649206862142</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E32" t="n">
-        <v>899.2322418529996</v>
+        <v>1230.796550638079</v>
       </c>
       <c r="F32" t="n">
-        <v>899.2322418529996</v>
+        <v>809.7661385917668</v>
       </c>
       <c r="G32" t="n">
-        <v>490.5039577458317</v>
+        <v>401.0378544845989</v>
       </c>
       <c r="H32" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K32" t="n">
         <v>885.5886702674165</v>
@@ -6715,7 +6715,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O32" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P32" t="n">
         <v>4300.467232046283</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T32" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M33" t="n">
-        <v>562.1177108836107</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N33" t="n">
-        <v>1435.775802995229</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>971.8633271658769</v>
+        <v>1015.327156917303</v>
       </c>
       <c r="C34" t="n">
-        <v>800.7699547275934</v>
+        <v>844.2337844790193</v>
       </c>
       <c r="D34" t="n">
-        <v>641.2753100505033</v>
+        <v>684.7391398019292</v>
       </c>
       <c r="E34" t="n">
-        <v>480.3644949188228</v>
+        <v>523.8283246702488</v>
       </c>
       <c r="F34" t="n">
-        <v>315.7333690294141</v>
+        <v>359.19719878084</v>
       </c>
       <c r="G34" t="n">
-        <v>148.4829779549575</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H34" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
@@ -6897,13 +6897,13 @@
         <v>1622.642594311473</v>
       </c>
       <c r="W34" t="n">
-        <v>1622.642594311473</v>
+        <v>1343.572929820347</v>
       </c>
       <c r="X34" t="n">
-        <v>1384.298732171156</v>
+        <v>1240.062855528538</v>
       </c>
       <c r="Y34" t="n">
-        <v>1159.563033559921</v>
+        <v>1015.327156917303</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.237727455812</v>
+        <v>2494.579294402201</v>
       </c>
       <c r="C35" t="n">
-        <v>1692.113136769082</v>
+        <v>2084.454703715471</v>
       </c>
       <c r="D35" t="n">
-        <v>1287.649206862143</v>
+        <v>1679.990773808531</v>
       </c>
       <c r="E35" t="n">
-        <v>873.3089913790395</v>
+        <v>1265.650558325428</v>
       </c>
       <c r="F35" t="n">
-        <v>452.2785793327271</v>
+        <v>844.6201462791155</v>
       </c>
       <c r="G35" t="n">
-        <v>93.24369769062281</v>
+        <v>435.8918621719477</v>
       </c>
       <c r="H35" t="n">
-        <v>93.24369769062281</v>
+        <v>124.9833647996657</v>
       </c>
       <c r="I35" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674167</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6961,28 +6961,28 @@
         <v>4621.628238841575</v>
       </c>
       <c r="R35" t="n">
-        <v>4662.184884531141</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4526.903809325241</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T35" t="n">
-        <v>4304.6973252721</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.63683353161</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.799278868091</v>
+        <v>4090.140845814479</v>
       </c>
       <c r="W35" t="n">
-        <v>3314.038978003259</v>
+        <v>3706.380544949648</v>
       </c>
       <c r="X35" t="n">
-        <v>2913.395580172212</v>
+        <v>3305.7371471186</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120302</v>
+        <v>2904.80047406669</v>
       </c>
     </row>
     <row r="36">
@@ -7004,7 +7004,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F36" t="n">
-        <v>291.7296147203279</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G36" t="n">
         <v>184.7395020346666</v>
@@ -7013,31 +7013,31 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I36" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.24369769062281</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.24369769062281</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>754.3318696099111</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M36" t="n">
-        <v>754.3318696099111</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N36" t="n">
-        <v>1627.989961721529</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3901.714378402657</v>
+        <v>452.318488259687</v>
       </c>
       <c r="C37" t="n">
-        <v>3730.621005964373</v>
+        <v>452.318488259687</v>
       </c>
       <c r="D37" t="n">
-        <v>3730.621005964373</v>
+        <v>403.7619680168467</v>
       </c>
       <c r="E37" t="n">
-        <v>3730.621005964373</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="F37" t="n">
-        <v>3565.989880074964</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="G37" t="n">
-        <v>3398.739489000508</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H37" t="n">
-        <v>3249.132033805964</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
-        <v>3132.78598791029</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>3146.868537315501</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K37" t="n">
-        <v>3301.420865037739</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L37" t="n">
-        <v>3561.317965317799</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M37" t="n">
-        <v>3850.582021758292</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N37" t="n">
-        <v>4131.420804152543</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O37" t="n">
-        <v>4390.981414479017</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P37" t="n">
-        <v>4596.65685472863</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q37" t="n">
-        <v>4662.184884531141</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>4576.91216620654</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>4553.698522431234</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T37" t="n">
-        <v>4314.149783407936</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U37" t="n">
-        <v>4314.149783407936</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V37" t="n">
-        <v>4314.149783407936</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="W37" t="n">
-        <v>4314.149783407936</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="X37" t="n">
-        <v>4314.149783407936</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="Y37" t="n">
-        <v>4089.414084796701</v>
+        <v>640.0181946537314</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2462.839627293158</v>
+        <v>2359.298219196301</v>
       </c>
       <c r="C38" t="n">
-        <v>2052.715036606428</v>
+        <v>1949.173628509571</v>
       </c>
       <c r="D38" t="n">
-        <v>1648.251106699488</v>
+        <v>1544.709698602632</v>
       </c>
       <c r="E38" t="n">
         <v>1233.910891216385</v>
@@ -7168,16 +7168,16 @@
         <v>404.1521950629048</v>
       </c>
       <c r="H38" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I38" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K38" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7195,31 +7195,31 @@
         <v>4300.467232046283</v>
       </c>
       <c r="Q38" t="n">
-        <v>4621.628238841576</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R38" t="n">
-        <v>4662.184884531141</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4662.184884531141</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4662.184884531141</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U38" t="n">
-        <v>4408.238733368956</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V38" t="n">
-        <v>4058.401178705436</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W38" t="n">
-        <v>3674.640877840605</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X38" t="n">
-        <v>3273.997480009557</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y38" t="n">
-        <v>2873.060806957647</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="39">
@@ -7241,7 +7241,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F39" t="n">
-        <v>291.7296147203279</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G39" t="n">
         <v>184.7395020346666</v>
@@ -7250,28 +7250,28 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I39" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.24369769062281</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>93.24369769062281</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>93.24369769062281</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851895</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N39" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q39" t="n">
         <v>2139.732893541123</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>916.6240469015422</v>
+        <v>584.7425299376769</v>
       </c>
       <c r="C40" t="n">
-        <v>745.5306744632587</v>
+        <v>413.6491574993933</v>
       </c>
       <c r="D40" t="n">
-        <v>586.0360297861687</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="E40" t="n">
-        <v>425.1252146544881</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
         <v>107.3262470958333</v>
@@ -7365,19 +7365,19 @@
         <v>1537.369875986873</v>
       </c>
       <c r="U40" t="n">
-        <v>1537.369875986873</v>
+        <v>1325.397645883325</v>
       </c>
       <c r="V40" t="n">
-        <v>1537.369875986873</v>
+        <v>1051.511900822847</v>
       </c>
       <c r="W40" t="n">
-        <v>1537.369875986873</v>
+        <v>772.4422363317212</v>
       </c>
       <c r="X40" t="n">
-        <v>1329.059451906822</v>
+        <v>772.4422363317212</v>
       </c>
       <c r="Y40" t="n">
-        <v>1104.323753295587</v>
+        <v>772.4422363317212</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C41" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D41" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E41" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F41" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G41" t="n">
-        <v>179.5954603735497</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H41" t="n">
         <v>179.5954603735497</v>
@@ -7441,22 +7441,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>4304.697325272099</v>
+        <v>4401.813433128853</v>
       </c>
       <c r="U41" t="n">
-        <v>4047.636833531609</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="V41" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W41" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X41" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y41" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M42" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N42" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O42" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P42" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q42" t="n">
         <v>2139.732893541123</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>93.2436976906228</v>
+        <v>749.3736558270855</v>
       </c>
       <c r="C43" t="n">
-        <v>93.2436976906228</v>
+        <v>578.280283388802</v>
       </c>
       <c r="D43" t="n">
-        <v>93.2436976906228</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="E43" t="n">
-        <v>93.2436976906228</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F43" t="n">
         <v>93.2436976906228</v>
@@ -7593,28 +7593,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U43" t="n">
-        <v>1068.179960412907</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V43" t="n">
-        <v>835.3929229333004</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="W43" t="n">
-        <v>556.3232584421747</v>
+        <v>1212.453216578637</v>
       </c>
       <c r="X43" t="n">
-        <v>317.9793963018581</v>
+        <v>974.1093544383208</v>
       </c>
       <c r="Y43" t="n">
-        <v>93.2436976906228</v>
+        <v>749.3736558270855</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C44" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D44" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E44" t="n">
-        <v>923.0023938441032</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F44" t="n">
-        <v>501.9719817977906</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G44" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H44" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
         <v>885.5886702674165</v>
@@ -7678,22 +7678,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U44" t="n">
-        <v>4047.636833531609</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V44" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W44" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X44" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y44" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>549.0499539559215</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M45" t="n">
-        <v>1392.027034650488</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N45" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O45" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P45" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R45" t="n">
         <v>2139.732893541123</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>252.7383423677128</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C46" t="n">
-        <v>252.7383423677128</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D46" t="n">
         <v>93.2436976906228</v>
@@ -7830,28 +7830,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>1350.978107866783</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U46" t="n">
-        <v>1068.179960412907</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V46" t="n">
-        <v>1068.179960412907</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W46" t="n">
-        <v>789.1102959217815</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X46" t="n">
-        <v>550.7664337814649</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y46" t="n">
-        <v>326.0307351702296</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
   </sheetData>
@@ -7978,19 +7978,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
         <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>596.4554908421626</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
         <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O2" t="n">
         <v>93.18977562578313</v>
@@ -8060,22 +8060,22 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>332.177313013162</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
         <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>392.2643757374379</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
         <v>56.69261850483872</v>
@@ -8224,22 +8224,22 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>535.1658287548267</v>
+        <v>494.1995199774884</v>
       </c>
       <c r="N5" t="n">
         <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8303,16 +8303,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>564.2543476875378</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>564.4415429491204</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
         <v>410.0708656603775</v>
@@ -8452,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>632.7318453389136</v>
+        <v>531.8357165796273</v>
       </c>
       <c r="L8" t="n">
         <v>815.2746908024792</v>
@@ -8470,13 +8470,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>311.4682568862053</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,25 +8534,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>305.1060755964293</v>
+        <v>517.4884687476414</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>88.85829947169823</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
@@ -8774,22 +8774,22 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M12" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>156.8778172579053</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>88.85829947169823</v>
@@ -9008,10 +9008,10 @@
         <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M15" t="n">
         <v>57.56428373841742</v>
@@ -9020,16 +9020,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>695.0063011010592</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
         <v>128.2784515920617</v>
@@ -9242,13 +9242,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>176.7732988419765</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M18" t="n">
         <v>57.56428373841742</v>
@@ -9257,16 +9257,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9418,7 +9418,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P20" t="n">
-        <v>628.1510783507342</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q20" t="n">
         <v>414.4388617681339</v>
@@ -9479,16 +9479,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>518.93822867521</v>
       </c>
       <c r="N21" t="n">
         <v>53.19339339374999</v>
@@ -9497,13 +9497,13 @@
         <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>141.7522481051737</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>518.93822867521</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>605.6544519663084</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>605.6544519663084</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K35" t="n">
         <v>632.7318453389136</v>
@@ -10609,7 +10609,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920627</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M36" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>574.6635313430241</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10901,28 +10901,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11080,7 +11080,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
         <v>128.2784515920617</v>
@@ -11138,28 +11138,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11375,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>808.4518367176235</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
         <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>45.55681957368046</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>308.5558614412302</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>124.3333035327869</v>
       </c>
       <c r="C13" t="n">
         <v>169.3824387139007</v>
@@ -23430,7 +23430,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.1113806425979</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300456</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23503,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>49.19646844041392</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>187.9942390719856</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.577887163712</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>59.70539135393363</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300456</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23794,7 +23794,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>356.9958808389729</v>
+        <v>308.5558614412302</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,16 +23898,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>57.20702133496266</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>13.62273048742017</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23971,16 +23971,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>36.46078111520814</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>25.66401796922125</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>56.01419322081128</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
         <v>165.577887163712</v>
@@ -24180,13 +24180,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>8.893130557884547</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>187.9942390719856</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>49.19646844041357</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
@@ -24378,10 +24378,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>118.8474299705306</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>188.1972538326797</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>49.19646844041381</v>
+        <v>45.8471620423332</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24603,13 +24603,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
@@ -24621,7 +24621,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>8.893130557884547</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>65.59175760416488</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24685,10 +24685,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>32.28731256679833</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24849,10 +24849,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>111.0359336568948</v>
       </c>
       <c r="G31" t="n">
-        <v>29.63107290259944</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
         <v>148.1113806425979</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
@@ -24903,7 +24903,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24925,19 +24925,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>25.66401796922133</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>3.08319717252283</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>93.42449318090658</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>133.4854499700222</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>49.1964684404129</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>54.06597461814515</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>109.8287431899071</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>161.5463431013358</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
@@ -25380,7 +25380,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>102.5059940158881</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>3.083197172522006</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25560,10 +25560,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
         <v>148.1113806425979</v>
@@ -25605,19 +25605,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>70.11765817682493</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>29.73310367966317</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,13 +25681,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>96.14494677818635</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25788,16 +25788,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.577887163712</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
         <v>237.1532516330649</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>40.6877205050626</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>150.1616498700442</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>49.19646844041392</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,13 +25918,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>222.4997066824607</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>113.2632404556123</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>8.893130557884547</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>696136.0518048833</v>
+        <v>696136.0518048834</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>696136.0518048834</v>
+        <v>696136.0518048833</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>696136.0518048833</v>
+        <v>696136.0518048835</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>696136.0518048834</v>
+        <v>696136.0518048833</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>696136.0518048832</v>
+        <v>696136.0518048835</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>696136.0518048833</v>
+        <v>696136.0518048834</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>696136.0518048834</v>
+        <v>696136.0518048835</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>696136.0518048834</v>
+        <v>696136.0518048833</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>696136.0518048835</v>
+        <v>696136.0518048834</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>696136.0518048835</v>
+        <v>696136.0518048834</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>696136.0518048834</v>
+        <v>696136.0518048835</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>423494.2218843882</v>
+      </c>
+      <c r="C2" t="n">
         <v>423494.2218843881</v>
       </c>
-      <c r="C2" t="n">
-        <v>423494.221884388</v>
-      </c>
       <c r="D2" t="n">
-        <v>423494.221884388</v>
+        <v>423494.2218843882</v>
       </c>
       <c r="E2" t="n">
-        <v>376543.2677956218</v>
+        <v>376543.2677956219</v>
       </c>
       <c r="F2" t="n">
+        <v>376543.2677956221</v>
+      </c>
+      <c r="G2" t="n">
         <v>376543.267795622</v>
       </c>
-      <c r="G2" t="n">
-        <v>376543.2677956218</v>
-      </c>
       <c r="H2" t="n">
-        <v>376543.267795622</v>
+        <v>376543.2677956221</v>
       </c>
       <c r="I2" t="n">
-        <v>376543.2677956218</v>
+        <v>376543.2677956222</v>
       </c>
       <c r="J2" t="n">
-        <v>376543.2677956218</v>
+        <v>376543.2677956221</v>
       </c>
       <c r="K2" t="n">
         <v>376543.2677956219</v>
       </c>
       <c r="L2" t="n">
+        <v>376543.2677956221</v>
+      </c>
+      <c r="M2" t="n">
         <v>376543.267795622</v>
       </c>
-      <c r="M2" t="n">
-        <v>376543.2677956219</v>
-      </c>
       <c r="N2" t="n">
-        <v>376543.2677956219</v>
+        <v>376543.267795622</v>
       </c>
       <c r="O2" t="n">
-        <v>376543.267795622</v>
+        <v>376543.2677956221</v>
       </c>
       <c r="P2" t="n">
-        <v>376543.2677956218</v>
+        <v>376543.2677956221</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>171827.4689100684</v>
+        <v>171827.4689100685</v>
       </c>
       <c r="E3" t="n">
-        <v>26968.95418093434</v>
+        <v>26968.95418093424</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>139999.3108647527</v>
       </c>
       <c r="M3" t="n">
-        <v>22509.26477404757</v>
+        <v>22509.26477404744</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,16 +26420,16 @@
         <v>193745.8212557931</v>
       </c>
       <c r="C4" t="n">
-        <v>193745.821255793</v>
+        <v>193745.8212557931</v>
       </c>
       <c r="D4" t="n">
-        <v>113911.0406229378</v>
+        <v>113911.0406229377</v>
       </c>
       <c r="E4" t="n">
-        <v>59647.11115782198</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="F4" t="n">
-        <v>59647.11115782198</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="G4" t="n">
         <v>59647.11115782197</v>
@@ -26438,16 +26438,16 @@
         <v>59647.11115782198</v>
       </c>
       <c r="I4" t="n">
-        <v>59647.11115782197</v>
+        <v>59647.11115782198</v>
       </c>
       <c r="J4" t="n">
-        <v>59647.11115782197</v>
+        <v>59647.11115782198</v>
       </c>
       <c r="K4" t="n">
         <v>59647.11115782197</v>
       </c>
       <c r="L4" t="n">
-        <v>59647.11115782197</v>
+        <v>59647.11115782198</v>
       </c>
       <c r="M4" t="n">
         <v>59647.11115782198</v>
@@ -26475,7 +26475,7 @@
         <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>99001.07135520024</v>
+        <v>99001.07135520026</v>
       </c>
       <c r="E5" t="n">
         <v>70865.21024487332</v>
@@ -26502,10 +26502,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="M5" t="n">
-        <v>70865.21024487333</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="N5" t="n">
-        <v>70865.21024487333</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
         <v>70865.21024487332</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-10576.17434301664</v>
+        <v>-10576.17434301653</v>
       </c>
       <c r="C6" t="n">
-        <v>164379.3355500974</v>
+        <v>164379.3355500975</v>
       </c>
       <c r="D6" t="n">
-        <v>38754.64099618164</v>
+        <v>38754.64099618173</v>
       </c>
       <c r="E6" t="n">
-        <v>219061.9922119922</v>
+        <v>218881.4116193434</v>
       </c>
       <c r="F6" t="n">
-        <v>246030.9463929267</v>
+        <v>245850.3658002777</v>
       </c>
       <c r="G6" t="n">
-        <v>246030.9463929266</v>
+        <v>245850.3658002777</v>
       </c>
       <c r="H6" t="n">
-        <v>246030.9463929267</v>
+        <v>245850.3658002778</v>
       </c>
       <c r="I6" t="n">
-        <v>246030.9463929266</v>
+        <v>245850.3658002778</v>
       </c>
       <c r="J6" t="n">
-        <v>109436.1455870315</v>
+        <v>109255.5649943827</v>
       </c>
       <c r="K6" t="n">
-        <v>246030.9463929266</v>
+        <v>245850.3658002776</v>
       </c>
       <c r="L6" t="n">
-        <v>106031.6355281741</v>
+        <v>105851.0549355249</v>
       </c>
       <c r="M6" t="n">
-        <v>223521.6816188791</v>
+        <v>223341.1010262302</v>
       </c>
       <c r="N6" t="n">
-        <v>246030.9463929266</v>
+        <v>245850.3658002777</v>
       </c>
       <c r="O6" t="n">
-        <v>246030.9463929267</v>
+        <v>245850.3658002778</v>
       </c>
       <c r="P6" t="n">
-        <v>246030.9463929265</v>
+        <v>245850.3658002777</v>
       </c>
     </row>
   </sheetData>
@@ -26795,7 +26795,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>1075.221568342109</v>
+        <v>1075.22156834211</v>
       </c>
       <c r="E4" t="n">
         <v>1165.546221132785</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>553.1579979720838</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="E4" t="n">
-        <v>90.32465279067557</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>553.1579979720838</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>90.3246527906758</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>553.1579979720838</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>90.32465279067557</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5722935759682741</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>80.24312864881767</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>159.932445030154</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
@@ -27590,7 +27590,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>55.35263051300493</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,22 +27621,22 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>59.92289873619933</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>12.21906234721848</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,19 +27827,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>194.7158398879886</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>60.49569797502627</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>265.8001165366263</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
@@ -27906,10 +27906,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>45.8156973240178</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>126.9450269688242</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>181.0244246222284</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
-        <v>500.9700927793178</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
-        <v>522.0635703700256</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>276.3515302285466</v>
       </c>
       <c r="L3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
-        <v>338.0047407346341</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34944,22 +34944,22 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>441.8756042977813</v>
+        <v>400.909295520443</v>
       </c>
       <c r="N5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35023,16 +35023,16 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>506.6900639491204</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>353.3782471555388</v>
@@ -35172,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>543.5954556656965</v>
+        <v>442.6993269064101</v>
       </c>
       <c r="L8" t="n">
         <v>719.7892927396343</v>
@@ -35190,13 +35190,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>217.8188936053212</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>248.9915517855802</v>
+        <v>461.3739449367923</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>29.85810036629282</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
@@ -35494,22 +35494,22 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>103.6844238641553</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
         <v>29.85810036629282</v>
@@ -35728,10 +35728,10 @@
         <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35740,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>637.2548221010592</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35904,7 +35904,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
         <v>40.9663087773382</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>120.9475160573611</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35977,16 +35977,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36138,7 +36138,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P20" t="n">
-        <v>534.5017150698501</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q20" t="n">
         <v>324.4050573689818</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36217,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>87.49261310237</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>547.9029729663084</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K35" t="n">
         <v>543.5954556656965</v>
@@ -37329,7 +37329,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
-        <v>40.96630877733921</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>516.9120523430241</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
         <v>40.9663087773382</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M45" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>755.2584433238735</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
